--- a/GE14.xlsx
+++ b/GE14.xlsx
@@ -16,46 +16,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="962">
   <si>
-    <t>Perlis</t>
-  </si>
-  <si>
-    <t>Kedah</t>
-  </si>
-  <si>
-    <t>Kelantan</t>
-  </si>
-  <si>
-    <t>Terengganu</t>
-  </si>
-  <si>
-    <t>Penang</t>
-  </si>
-  <si>
-    <t>Perak</t>
-  </si>
-  <si>
-    <t>Pahang</t>
-  </si>
-  <si>
-    <t>Selangor</t>
-  </si>
-  <si>
-    <t>Federal Territories</t>
-  </si>
-  <si>
-    <t>Negri Sembilan</t>
-  </si>
-  <si>
-    <t>Melaka</t>
-  </si>
-  <si>
-    <t>Johor</t>
-  </si>
-  <si>
-    <t>Sabah</t>
-  </si>
-  <si>
-    <t>Sarawak</t>
+    <t>PERLIS</t>
+  </si>
+  <si>
+    <t>KEDAH</t>
+  </si>
+  <si>
+    <t>KELANTAN</t>
+  </si>
+  <si>
+    <t>TERENGGANU</t>
+  </si>
+  <si>
+    <t>PENANG</t>
+  </si>
+  <si>
+    <t>PERAK</t>
+  </si>
+  <si>
+    <t>PAHANG</t>
+  </si>
+  <si>
+    <t>SELANGOR</t>
+  </si>
+  <si>
+    <t>FEDERAL TERRITORIES</t>
+  </si>
+  <si>
+    <t>NEGRI SEMBILAN</t>
+  </si>
+  <si>
+    <t>MELAKA</t>
+  </si>
+  <si>
+    <t>JOHOR</t>
+  </si>
+  <si>
+    <t>SABAH</t>
+  </si>
+  <si>
+    <t>SARAWAK</t>
   </si>
   <si>
     <t>P1</t>
@@ -724,2065 +724,2065 @@
     <t>P222</t>
   </si>
   <si>
-    <t>Zahidi Zainul Abidin</t>
-  </si>
-  <si>
-    <t>Izizam Ibrahim</t>
-  </si>
-  <si>
-    <t>Mokhtar Senik</t>
-  </si>
-  <si>
-    <t>Noor Amin Ahmad</t>
-  </si>
-  <si>
-    <t>Ramli Shariff</t>
-  </si>
-  <si>
-    <t>Mohamad Zahid Ibrahim</t>
-  </si>
-  <si>
-    <t>Shahidan Kassim</t>
-  </si>
-  <si>
-    <t>Abd Rahman Daud</t>
-  </si>
-  <si>
-    <t>Hashim Jasin</t>
-  </si>
-  <si>
-    <t>Mahathir Mohamad</t>
-  </si>
-  <si>
-    <t>Nawawi Ahmad</t>
-  </si>
-  <si>
-    <t>Zubir Ahmad</t>
-  </si>
-  <si>
-    <t>Mukhriz Mahathir</t>
-  </si>
-  <si>
-    <t>Abd Ghani Ahmad</t>
-  </si>
-  <si>
-    <t>Othman Aziz</t>
-  </si>
-  <si>
-    <t>Amiruddin Hamzah</t>
-  </si>
-  <si>
-    <t>Mohd Johari Baharum</t>
-  </si>
-  <si>
-    <t>Norhafiza Fadzil</t>
-  </si>
-  <si>
-    <t>Mahdzir Khalid</t>
-  </si>
-  <si>
-    <t>Mohamad Azam Abd Majid @ Abd Aziz</t>
-  </si>
-  <si>
-    <t>Mohd Khairizal Khazali</t>
-  </si>
-  <si>
-    <t>Mahfuz Omar</t>
-  </si>
-  <si>
-    <t>Muhamad Radhi Mat Din</t>
-  </si>
-  <si>
-    <t>Said Ali Said Rastan</t>
-  </si>
-  <si>
-    <t>Chan Ming Kai</t>
-  </si>
-  <si>
-    <t>Muhammad Aminur Shafiq Mohamad Abduh</t>
-  </si>
-  <si>
-    <t>Yoo Wei How</t>
-  </si>
-  <si>
-    <t>Azman Ismail</t>
-  </si>
-  <si>
-    <t>Muhammad Riduan Othman</t>
-  </si>
-  <si>
-    <t>Abdullah Hasnan Kamaruddin</t>
-  </si>
-  <si>
-    <t>Awang Solahudin</t>
-  </si>
-  <si>
-    <t>Othman Abdul</t>
-  </si>
-  <si>
-    <t>Wan Saifulruddin Wan Jan</t>
-  </si>
-  <si>
-    <t>Abdul Malik Manaf</t>
-  </si>
-  <si>
-    <t>Sabri Azit</t>
-  </si>
-  <si>
-    <t>Jamil Khir Baharom</t>
-  </si>
-  <si>
-    <t>Akhramsyah Muammar Ubaidah Sanusi</t>
-  </si>
-  <si>
-    <t>Ahmad Tarmizi Sulaiman</t>
-  </si>
-  <si>
-    <t>Mansor Abd Rahman</t>
-  </si>
-  <si>
-    <t>Azli Uda</t>
-  </si>
-  <si>
-    <t>Nor Azrina Surip</t>
-  </si>
-  <si>
-    <t>Tajul Urus Mat Zain</t>
-  </si>
-  <si>
-    <t>Ahmad Fauzi Ramli</t>
-  </si>
-  <si>
-    <t>Johari Abdul</t>
-  </si>
-  <si>
-    <t>Shahanim Mohamad Yusoff</t>
-  </si>
-  <si>
-    <t>Sharir Long</t>
-  </si>
-  <si>
-    <t>Sritharan Pichathu</t>
-  </si>
-  <si>
-    <t>Abdul Azeez Abdul Rahim</t>
-  </si>
-  <si>
-    <t>Hassan Saad</t>
-  </si>
-  <si>
-    <t>Mohd Taufik Yaacob</t>
-  </si>
-  <si>
-    <t>Karupaiya Mutusami</t>
-  </si>
-  <si>
-    <t>Muhamad Sobri Osman</t>
-  </si>
-  <si>
-    <t>Leong Yong Kong</t>
-  </si>
-  <si>
-    <t>Saifuddin Nasution Ismail</t>
-  </si>
-  <si>
-    <t>Abdul Aziz Sheikh Fadzir</t>
-  </si>
-  <si>
-    <t>Abdul Raman Abdul Razak</t>
-  </si>
-  <si>
-    <t>Che Abdullah Mat Nawi</t>
-  </si>
-  <si>
-    <t>Wan Johani Wan Hussin</t>
-  </si>
-  <si>
-    <t>Nordin Salleh</t>
-  </si>
-  <si>
-    <t>Ahmad Marzuk Shaary</t>
-  </si>
-  <si>
-    <t>Zaluzi Sulaiman</t>
-  </si>
-  <si>
-    <t>Mohamad Ibrahim</t>
-  </si>
-  <si>
-    <t>Takiyuddin Hassan</t>
-  </si>
-  <si>
-    <t>Husam Musa</t>
-  </si>
-  <si>
-    <t>Fikhran Hamshi Mohd Fatmi</t>
-  </si>
-  <si>
-    <t>Ahmad Fadhli Shaari</t>
-  </si>
-  <si>
-    <t>Nor Azmawi Ab Rahman</t>
-  </si>
-  <si>
-    <t>Ibrahim Ali</t>
-  </si>
-  <si>
-    <t>Che Ujang Che Daud</t>
-  </si>
-  <si>
-    <t>Siti Zailah Mohd Yusoff</t>
-  </si>
-  <si>
-    <t>Abdullah Mat Yasim</t>
-  </si>
-  <si>
-    <t>Wan Shah Jihan Wan Din</t>
-  </si>
-  <si>
-    <t>Tuan Ibrahim Tuan Man</t>
-  </si>
-  <si>
-    <t>Muhamad Abdul Ghani</t>
-  </si>
-  <si>
-    <t>Abdul Halim Yusof</t>
-  </si>
-  <si>
-    <t>Nik Mohamad Abduh Nik Abd Aziz</t>
-  </si>
-  <si>
-    <t>Awang Adek Hussin</t>
-  </si>
-  <si>
-    <t>Zulkifli Zakaria</t>
-  </si>
-  <si>
-    <t>Annuar Musa</t>
-  </si>
-  <si>
-    <t>Wan Ismail Wan Jusoh</t>
-  </si>
-  <si>
-    <t>Mohd Radzijidin</t>
-  </si>
-  <si>
-    <t>Ikmal Hisham Abdul Aziz</t>
-  </si>
-  <si>
-    <t>Johari Mat</t>
-  </si>
-  <si>
-    <t>Mohamad Fauzi Zakaria</t>
-  </si>
-  <si>
-    <t>Nik Muhammad Zawawi Salleh</t>
-  </si>
-  <si>
-    <t>Asyraf Wajdi Dusuki</t>
-  </si>
-  <si>
-    <t>Kamaruddin Md Noor</t>
-  </si>
-  <si>
-    <t>Ahmad Jazlan Yaakub</t>
-  </si>
-  <si>
-    <t>Zulkifli Mamat</t>
-  </si>
-  <si>
-    <t>Sazmi Miah</t>
-  </si>
-  <si>
-    <t>Mustapa Mohamed</t>
-  </si>
-  <si>
-    <t>Mohamad Hamid</t>
-  </si>
-  <si>
-    <t>Azran Deraman</t>
-  </si>
-  <si>
-    <t>Abdul Latiff Abdul Rahman</t>
-  </si>
-  <si>
-    <t>Ramzi Ab Rahman</t>
-  </si>
-  <si>
-    <t>Mohd Yazid Abdullah</t>
-  </si>
-  <si>
-    <t>Tengku Razaleigh Tengku Mohd Hamzah</t>
-  </si>
-  <si>
-    <t>Abdullah Hussein</t>
-  </si>
-  <si>
-    <t>Mohd Nor Hussin</t>
-  </si>
-  <si>
-    <t>Idris Jusoh</t>
-  </si>
-  <si>
-    <t>Riduan Mohamad Nor</t>
-  </si>
-  <si>
-    <t>Wan Nazari Wan Jusoh</t>
-  </si>
-  <si>
-    <t>Shaharizukirnain Abd Kadir</t>
-  </si>
-  <si>
-    <t>Mohd Jidin Shafee</t>
-  </si>
-  <si>
-    <t>Mohd Faudzi Musa</t>
-  </si>
-  <si>
-    <t>Mohd Khairuddin Aman Razali</t>
-  </si>
-  <si>
-    <t>Tengku Asmadi Tengku Mohamad</t>
-  </si>
-  <si>
-    <t>Abdullah Mohamed</t>
-  </si>
-  <si>
-    <t>Ahmad Amzad Mohamed @ Hashim</t>
-  </si>
-  <si>
-    <t>Wan Nawawi Wan Ismail</t>
-  </si>
-  <si>
-    <t>Raja Kamarul Bahrin Shah</t>
-  </si>
-  <si>
-    <t>Abdul Hadi Awang</t>
-  </si>
-  <si>
-    <t>Mohamad Nor Endot</t>
-  </si>
-  <si>
-    <t>Zarawi Sulong</t>
-  </si>
-  <si>
-    <t>Rosol Wahid</t>
-  </si>
-  <si>
-    <t>Muhyidin Abdul Rashid</t>
-  </si>
-  <si>
-    <t>Razali  Idris</t>
-  </si>
-  <si>
-    <t>Wan Hassan Mohd Ramli</t>
-  </si>
-  <si>
-    <t>Din Adam</t>
-  </si>
-  <si>
-    <t>Abd Rahman Yusof</t>
-  </si>
-  <si>
-    <t>Che Alias Hamid</t>
-  </si>
-  <si>
-    <t>Ahmad Shabery Cheek</t>
-  </si>
-  <si>
-    <t>Mohd Huzaifah Md Suhaimi</t>
-  </si>
-  <si>
-    <t>Reezal Merican Naina Merican</t>
-  </si>
-  <si>
-    <t>Zaidi Zakaria</t>
-  </si>
-  <si>
-    <t>Siti Mastura Muhammad</t>
-  </si>
-  <si>
-    <t>Shabudin Yahaya</t>
-  </si>
-  <si>
-    <t>Marzuki Yahya</t>
-  </si>
-  <si>
-    <t>Rizal Hafiz Ruslan</t>
-  </si>
-  <si>
-    <t>Lim Guan Eng</t>
-  </si>
-  <si>
-    <t>Lee Beng Seng</t>
-  </si>
-  <si>
-    <t>Huan Cheng Guan</t>
-  </si>
-  <si>
-    <t>Koay Xing Boon</t>
-  </si>
-  <si>
-    <t>Nurul Izzah Anwar</t>
-  </si>
-  <si>
-    <t>Mohd Zaidi Mohd Said</t>
-  </si>
-  <si>
-    <t>Afnan Hamimi Taib Azamudden</t>
-  </si>
-  <si>
-    <t>Sim Chee Keong</t>
-  </si>
-  <si>
-    <t>Gui Guat Lye</t>
-  </si>
-  <si>
-    <t>Kasthuriraani Patto</t>
-  </si>
-  <si>
-    <t>Jayanthi Devi Balaguru</t>
-  </si>
-  <si>
-    <t>Jay Kumar Balakrishna</t>
-  </si>
-  <si>
-    <t>Ooi Khar Giap</t>
-  </si>
-  <si>
-    <t>Mansor Othman</t>
-  </si>
-  <si>
-    <t>Shaik Hussein Mydin</t>
-  </si>
-  <si>
-    <t>Mohd Helmi Haron</t>
-  </si>
-  <si>
-    <t>Tan Tee Beng</t>
-  </si>
-  <si>
-    <t>Wong Hon Wai</t>
-  </si>
-  <si>
-    <t>Andy Yong Kim Seng</t>
-  </si>
-  <si>
-    <t>Tan Gim Theam</t>
-  </si>
-  <si>
-    <t>Chow Kon Yeow</t>
-  </si>
-  <si>
-    <t>Ng Siew Lai</t>
-  </si>
-  <si>
-    <t>Sanisvara Nethaji Rayer Rajaji</t>
-  </si>
-  <si>
-    <t>Baljit Singh Jigiri Singh</t>
-  </si>
-  <si>
-    <t>Tan Sim Bee</t>
-  </si>
-  <si>
-    <t>Ramkarpal Singh Karpal Singh</t>
-  </si>
-  <si>
-    <t>Low Joo Hiap</t>
-  </si>
-  <si>
-    <t>Lai Xue Ching</t>
-  </si>
-  <si>
-    <t>Sim Tze Tzin</t>
-  </si>
-  <si>
-    <t>Chuah Seng Guan</t>
-  </si>
-  <si>
-    <t>Iszuree Ibrahim</t>
-  </si>
-  <si>
-    <t>David Yim Boon Leong</t>
-  </si>
-  <si>
-    <t>Muhammad Bakhtiar Wan Chik</t>
-  </si>
-  <si>
-    <t>Hilmi Yahaya</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>Hasbullah Osman</t>
-  </si>
-  <si>
-    <t>Mohd Dahalan Ismail</t>
-  </si>
-  <si>
-    <t>Ibrahim Mohd Hanafiah</t>
-  </si>
-  <si>
-    <t>Shamsul Anuar Nasarah</t>
-  </si>
-  <si>
-    <t>Muhammad Mujahid Mohammad Fadzil</t>
-  </si>
-  <si>
-    <t>Amirul Fairuzzeen Jamaluddin</t>
-  </si>
-  <si>
-    <t>Hamzah Zainudin</t>
-  </si>
-  <si>
-    <t>Abu Husin Mohmmad</t>
-  </si>
-  <si>
-    <t>Khairil Anuar Akhiruddin</t>
-  </si>
-  <si>
-    <t>Mujahid Yusof</t>
-  </si>
-  <si>
-    <t>Abdul Puhat Mat Nayan</t>
-  </si>
-  <si>
-    <t>Ahmad Azhar Sharin</t>
-  </si>
-  <si>
-    <t>Noor Azmi Ghazali</t>
-  </si>
-  <si>
-    <t>Rohaya Bakar</t>
-  </si>
-  <si>
-    <t>Adam Asmuni</t>
-  </si>
-  <si>
-    <t>Syed Abu Hussin Hafiz Syed Abdul Fasal</t>
-  </si>
-  <si>
-    <t>Khadri Khalid</t>
-  </si>
-  <si>
-    <t>Idris Ahmad</t>
-  </si>
-  <si>
-    <t>Teh Kok Lim</t>
-  </si>
-  <si>
-    <t>Tan Keng Liang</t>
-  </si>
-  <si>
-    <t>Ibrahim Ismail</t>
-  </si>
-  <si>
-    <t>Mohamed Nazri Abdul Aziz</t>
-  </si>
-  <si>
-    <t>Ejazi Yahaya</t>
-  </si>
-  <si>
-    <t>Mohamad Azalan Mohamad Radzi</t>
-  </si>
-  <si>
-    <t>Kesavan Subramaniam</t>
-  </si>
-  <si>
-    <t>Devamany Krishnasamy</t>
-  </si>
-  <si>
-    <t>Ishak Ibrahim</t>
-  </si>
-  <si>
-    <t>Michael Jeyakumar Devaraj</t>
-  </si>
-  <si>
-    <t>Ahmad Faizal Azumu</t>
-  </si>
-  <si>
-    <t>Ahmad Husni Mohamad Hanadzlah</t>
-  </si>
-  <si>
-    <t>Muhamad Zulkifli Mohamad Zakaria</t>
-  </si>
-  <si>
-    <t>Wong Kah Woh</t>
-  </si>
-  <si>
-    <t>Kathleen Wong Mei Yin</t>
-  </si>
-  <si>
-    <t>Kulasegaran Murugeson</t>
-  </si>
-  <si>
-    <t>Cheng Wei Yee</t>
-  </si>
-  <si>
-    <t>Sivakumar Varatharaju Naidu</t>
-  </si>
-  <si>
-    <t>Leong Chee Wai</t>
-  </si>
-  <si>
-    <t>Kunasekaran Krishnan</t>
-  </si>
-  <si>
-    <t>Mastura Mohd Yazid</t>
-  </si>
-  <si>
-    <t>Ahmad Termizi Ramli</t>
-  </si>
-  <si>
-    <t>Khalil Idham Lim Abdullah</t>
-  </si>
-  <si>
-    <t>Ngeh Koo Ham</t>
-  </si>
-  <si>
-    <t>Pang Chok King</t>
-  </si>
-  <si>
-    <t>Mohamad Nazeer M K M Hameed</t>
-  </si>
-  <si>
-    <t>Mohd Nizar Zakaria</t>
-  </si>
-  <si>
-    <t>Najihatussalehah Ahmad</t>
-  </si>
-  <si>
-    <t>Ahmad Tarmizi Mohd Jam</t>
-  </si>
-  <si>
-    <t>Su Keong Siong</t>
-  </si>
-  <si>
-    <t>Lee Chee Leong</t>
-  </si>
-  <si>
-    <t>Yougan Mahalingam</t>
-  </si>
-  <si>
-    <t>Lee Boon Chye</t>
-  </si>
-  <si>
-    <t>Heng Seai Kie</t>
-  </si>
-  <si>
-    <t>Ismail Ariffin</t>
-  </si>
-  <si>
-    <t>Saravanan Murugan</t>
-  </si>
-  <si>
-    <t>Mohamed Azni Mohamed Ali</t>
-  </si>
-  <si>
-    <t>Norazli Musa</t>
-  </si>
-  <si>
-    <t>Tajuddin Abdul Rahman</t>
-  </si>
-  <si>
-    <t>Salihuddin Radin Sumadi</t>
-  </si>
-  <si>
-    <t>Zafarulazhan Zan</t>
-  </si>
-  <si>
-    <t>Mohd Hatta Md Ramli</t>
-  </si>
-  <si>
-    <t>Zambry Abd Kadir</t>
-  </si>
-  <si>
-    <t>Mohammed Zamri Ibrahim</t>
-  </si>
-  <si>
-    <t>Ahmad Zahid Hamidi</t>
-  </si>
-  <si>
-    <t>Pakhrurrazi Arshad</t>
-  </si>
-  <si>
-    <t>Ata Abdul Muneim Hasan Adli</t>
-  </si>
-  <si>
-    <t>Nga Kor Ming</t>
-  </si>
-  <si>
-    <t>Mah Siew Keong</t>
-  </si>
-  <si>
-    <t>Ahmad Ramadzan Ahmad Daud</t>
-  </si>
-  <si>
-    <t>Chang Lih Kang</t>
-  </si>
-  <si>
-    <t>Mah Hang Soon</t>
-  </si>
-  <si>
-    <t>Mohd Tarmizi Ab Rahman</t>
-  </si>
-  <si>
-    <t>Sivaraj Chandran</t>
-  </si>
-  <si>
-    <t>Manogaran Marimuthu</t>
-  </si>
-  <si>
-    <t>Wan Mahadir Wan Mahmud</t>
-  </si>
-  <si>
-    <t>Suresh Kumar Balasubramaniam</t>
-  </si>
-  <si>
-    <t>Mohd Tahir Kassim</t>
-  </si>
-  <si>
-    <t>Abdul Rahman Mohamad</t>
-  </si>
-  <si>
-    <t>Badarudin Abd Rahaman</t>
-  </si>
-  <si>
-    <t>Sobirin Duli</t>
-  </si>
-  <si>
-    <t>Tengku Zulpuri Shah Raja Puji</t>
-  </si>
-  <si>
-    <t>Chew Mei Fun</t>
-  </si>
-  <si>
-    <t>Mohamed Nilam Abdul Manap</t>
-  </si>
-  <si>
-    <t>Ahmad Nazlan Idris</t>
-  </si>
-  <si>
-    <t>Yohanis Ahmad</t>
-  </si>
-  <si>
-    <t>Wan Mohd Shaharir Wan Abd Jalil</t>
-  </si>
-  <si>
-    <t>Saifuddin Abdullah</t>
-  </si>
-  <si>
-    <t>Johan Mat Sah</t>
-  </si>
-  <si>
-    <t>Nasrudin Hassan</t>
-  </si>
-  <si>
-    <t>Fuziah Salleh</t>
-  </si>
-  <si>
-    <t>Sulaiman Md Derus</t>
-  </si>
-  <si>
-    <t>Wong Kean Hwee</t>
-  </si>
-  <si>
-    <t>Mohd Shahar Abdullah</t>
-  </si>
-  <si>
-    <t>Mohamad Azhar Mohd Noor</t>
-  </si>
-  <si>
-    <t>Mohd Ashraf Mustaqim Badrul Munir</t>
-  </si>
-  <si>
-    <t>Mohd Najib Abd Razak</t>
-  </si>
-  <si>
-    <t>Ahiatudin Daud</t>
-  </si>
-  <si>
-    <t>Muhammad Zahid Md Arip</t>
-  </si>
-  <si>
-    <t>Abd Kadir Sainudin</t>
-  </si>
-  <si>
-    <t>Ismail Abd Muttalib</t>
-  </si>
-  <si>
-    <t>Hasenan Haron</t>
-  </si>
-  <si>
-    <t>Ahmad Farid Ahmad Nordin</t>
-  </si>
-  <si>
-    <t>Ismail Mohamed Said</t>
-  </si>
-  <si>
-    <t>Kamal Ashaari</t>
-  </si>
-  <si>
-    <t>Mohamad Rafidee Hassim</t>
-  </si>
-  <si>
-    <t>Mohd Anuar Mohd Tahir</t>
-  </si>
-  <si>
-    <t>Mohd Sharkar Shamsudin</t>
-  </si>
-  <si>
-    <t>Md Jusoh Darus</t>
-  </si>
-  <si>
-    <t>Mohd Khaidir Ahmad</t>
-  </si>
-  <si>
-    <t>Muhamad Fakhrudin Abu Hanipah</t>
-  </si>
-  <si>
-    <t>Wong Tack</t>
-  </si>
-  <si>
-    <t>Liow Tiong Lai</t>
-  </si>
-  <si>
-    <t>Balasubramaniam Nachiappan</t>
-  </si>
-  <si>
-    <t>Ismail Sabri Yaakob</t>
-  </si>
-  <si>
-    <t>Zakaria Abdul Hamid</t>
-  </si>
-  <si>
-    <t>Musaniff Ab Rahman</t>
-  </si>
-  <si>
-    <t>Hasan Arifin</t>
-  </si>
-  <si>
-    <t>M Shahrul Nizam Abdul Haliff</t>
-  </si>
-  <si>
-    <t>Sitarunisah Ab Kadir</t>
-  </si>
-  <si>
-    <t>Mohd Fasiah Mohd Fakeh</t>
-  </si>
-  <si>
-    <t>Warno Dogol</t>
-  </si>
-  <si>
-    <t>Muhammad Labib Abd Jalil</t>
-  </si>
-  <si>
-    <t>Muslimin Yahaya</t>
-  </si>
-  <si>
-    <t>Budiman Mohd Zohdi</t>
-  </si>
-  <si>
-    <t>Mohamed Salleh M Husin</t>
-  </si>
-  <si>
-    <t>Leow Hsiad Hui</t>
-  </si>
-  <si>
-    <t>Kamalanathan Panchanathan</t>
-  </si>
-  <si>
-    <t>Wan Mat Sulaiman</t>
-  </si>
-  <si>
-    <t>Kumar Paramasivam</t>
-  </si>
-  <si>
-    <t>Noh Omar</t>
-  </si>
-  <si>
-    <t>Zulkafperi Hanapi</t>
-  </si>
-  <si>
-    <t>Nor Az Azlan Ahmad</t>
-  </si>
-  <si>
-    <t>Dzulkefly Ahmad</t>
-  </si>
-  <si>
-    <t>Irmohizam Ibrahim</t>
-  </si>
-  <si>
-    <t>Mohd Fakaruddin Ismail</t>
-  </si>
-  <si>
-    <t>William Leong Jee Keen</t>
-  </si>
-  <si>
-    <t>Kang Meng Fuat</t>
-  </si>
-  <si>
-    <t>Hashim Abd Karim</t>
-  </si>
-  <si>
-    <t>Mohamed Azmin Ali</t>
-  </si>
-  <si>
-    <t>Abdul Rahim Pandak Kamarudin</t>
-  </si>
-  <si>
-    <t>Khairil Nizam Khirudin</t>
-  </si>
-  <si>
-    <t>Zuraida Kamaruddin</t>
-  </si>
-  <si>
-    <t>Leong Kim Soon</t>
-  </si>
-  <si>
-    <t>Nurul Islam Mohamed Yusoff</t>
-  </si>
-  <si>
-    <t>Tan Hua Meng</t>
-  </si>
-  <si>
-    <t>Wan Azizah Wan Ismail</t>
-  </si>
-  <si>
-    <t>Leong Kok Wee</t>
-  </si>
-  <si>
-    <t>Mohamed Sukri Omar</t>
-  </si>
-  <si>
-    <t>Lee Ying Ha</t>
-  </si>
-  <si>
-    <t>Mohd Khairul Azam Abdul Aziz</t>
-  </si>
-  <si>
-    <t>Hasanuddin Mohd Yunus</t>
-  </si>
-  <si>
-    <t>Azman Ahmad</t>
-  </si>
-  <si>
-    <t>Che Rosli Che Mat</t>
-  </si>
-  <si>
-    <t>Ong Kian Ming</t>
-  </si>
-  <si>
-    <t>Mohd Shafie Ngah</t>
-  </si>
-  <si>
-    <t>Liew Yuen Keong</t>
-  </si>
-  <si>
-    <t>Wan Jinn Woei</t>
-  </si>
-  <si>
-    <t>Gobind Singh Deo</t>
-  </si>
-  <si>
-    <t>Ang Chin Tat</t>
-  </si>
-  <si>
-    <t>Mohamad Rosharizan Mohd Rozlan</t>
-  </si>
-  <si>
-    <t>Wong Chen</t>
-  </si>
-  <si>
-    <t>Tan Seong Lim</t>
-  </si>
-  <si>
-    <t>Mohd Shahir Mohd Adnan</t>
-  </si>
-  <si>
-    <t>Toh Sin Wah</t>
-  </si>
-  <si>
-    <t>Maria Chin Abdullah</t>
-  </si>
-  <si>
-    <t>Chew Hian Tat</t>
-  </si>
-  <si>
-    <t>Noraini Hussin</t>
-  </si>
-  <si>
-    <t>Pua Kiam Wee</t>
-  </si>
-  <si>
-    <t>Ho Kwok Xheng</t>
-  </si>
-  <si>
-    <t>Wong Mun Kheong</t>
-  </si>
-  <si>
-    <t>Sivarasa Rasiah</t>
-  </si>
-  <si>
-    <t>Nuridah Mohd Salleh</t>
-  </si>
-  <si>
-    <t>Pakas Rao Applanaidoo</t>
-  </si>
-  <si>
-    <t>Zainurrizzaman Mohram</t>
-  </si>
-  <si>
-    <t>Khalid Abd Samad</t>
-  </si>
-  <si>
-    <t>Azhari Shaari</t>
-  </si>
-  <si>
-    <t>Mohd Zuhdi Marsuki</t>
-  </si>
-  <si>
-    <t>Abdullah Sani Abdul Hamid</t>
-  </si>
-  <si>
-    <t>Abd Rani Osman</t>
-  </si>
-  <si>
-    <t>Mohana Muniandy Raman</t>
-  </si>
-  <si>
-    <t>Manikavasagam Sundaram</t>
-  </si>
-  <si>
-    <t>Charles Anthony R Santiago</t>
-  </si>
-  <si>
-    <t>Ching Eu Boon</t>
-  </si>
-  <si>
-    <t>Khairul Shah Abdullah</t>
-  </si>
-  <si>
-    <t>Puvananderan Ganasamoorthy</t>
-  </si>
-  <si>
-    <t>Mohamad Sabu</t>
-  </si>
-  <si>
-    <t>Mohamed Diah Baharun</t>
-  </si>
-  <si>
-    <t>Gunalan Velu</t>
-  </si>
-  <si>
-    <t>Xavier Jayakumar Arulanandam</t>
-  </si>
-  <si>
-    <t>Shahril Sufian Hamdan</t>
-  </si>
-  <si>
-    <t>Yahya Baba</t>
-  </si>
-  <si>
-    <t>Mohamed Hanipa Maidin</t>
-  </si>
-  <si>
-    <t>Marsum Paing</t>
-  </si>
-  <si>
-    <t>Sabirin Marsono</t>
-  </si>
-  <si>
-    <t>Lim Lip Eng</t>
-  </si>
-  <si>
-    <t>Ong Siang Liang</t>
-  </si>
-  <si>
-    <t>Prabakaran Parameswaran</t>
-  </si>
-  <si>
-    <t>Dominic Lau Hoe Chai</t>
-  </si>
-  <si>
-    <t>Azhar Yahya</t>
-  </si>
-  <si>
-    <t>Panjamorthy Muthusami</t>
-  </si>
-  <si>
-    <t>Tan Yee Kew</t>
-  </si>
-  <si>
-    <t>Yew Teong Look</t>
-  </si>
-  <si>
-    <t>Razali Tumirin</t>
-  </si>
-  <si>
-    <t>Hannah Yeoh</t>
-  </si>
-  <si>
-    <t>Loga Bala Mohan Jaganathan</t>
-  </si>
-  <si>
-    <t>Mohd Solleh Ab Razak</t>
-  </si>
-  <si>
-    <t>Nik Nazmi Nik Ahmad</t>
-  </si>
-  <si>
-    <t>Zulhasnan Rafique</t>
-  </si>
-  <si>
-    <t>Ubaid Abd Akla</t>
-  </si>
-  <si>
-    <t>Rina Mohd Harun</t>
-  </si>
-  <si>
-    <t>Johari Abdul Ghani</t>
-  </si>
-  <si>
-    <t>Mohamad Noor Mohamad</t>
-  </si>
-  <si>
-    <t>Fong Kui Lun</t>
-  </si>
-  <si>
-    <t>Tan Ean Ean</t>
-  </si>
-  <si>
-    <t>Khairul Husni Othman</t>
-  </si>
-  <si>
-    <t>Ahmad Fahmi Mohamed Fadzil</t>
-  </si>
-  <si>
-    <t>Raja Nong Chik Raja Zainal Abidin</t>
-  </si>
-  <si>
-    <t>Fauzi Abu Bakar</t>
-  </si>
-  <si>
-    <t>Teresa Kok Suh Sim</t>
-  </si>
-  <si>
-    <t>Chan Quin Er</t>
-  </si>
-  <si>
-    <t>Tan Kok Wai</t>
-  </si>
-  <si>
-    <t>Heng Sinn Yee</t>
-  </si>
-  <si>
-    <t>Kamarudin Jaffar</t>
-  </si>
-  <si>
-    <t>Adnan Seman @ Abdullah</t>
-  </si>
-  <si>
-    <t>Rosni Adam</t>
-  </si>
-  <si>
-    <t>Tengku Adnan Tengku Mansor</t>
-  </si>
-  <si>
-    <t>Samsu Adabi Mamat</t>
-  </si>
-  <si>
-    <t>Zainal Abidin Kidam</t>
-  </si>
-  <si>
-    <t>Rozman Isli</t>
-  </si>
-  <si>
-    <t>Noor Halim Zaini</t>
-  </si>
-  <si>
-    <t>Ahmad Junid @ Junit Mohd Aling @ Aling</t>
-  </si>
-  <si>
-    <t>Siti Zaleha Ibrahim</t>
-  </si>
-  <si>
-    <t>Jalaludin Alias</t>
-  </si>
-  <si>
-    <t>Mustafar Ab Kadir</t>
-  </si>
-  <si>
-    <t>Norman Ipin</t>
-  </si>
-  <si>
-    <t>Mohd Salim Sharif</t>
-  </si>
-  <si>
-    <t>Kamarulzaman Kamdias</t>
-  </si>
-  <si>
-    <t>Mustaffa Daharun</t>
-  </si>
-  <si>
-    <t>Loke Siew Fook</t>
-  </si>
-  <si>
-    <t>Chong Sin Woon</t>
-  </si>
-  <si>
-    <t>Shariffuddin Ahmad</t>
-  </si>
-  <si>
-    <t>Eddin Syazlee Shith</t>
-  </si>
-  <si>
-    <t>Hasan Malek</t>
-  </si>
-  <si>
-    <t>Rafiei Mustapha</t>
-  </si>
-  <si>
-    <t>Cha Kee Chin</t>
-  </si>
-  <si>
-    <t>Ng Kian Nam</t>
-  </si>
-  <si>
-    <t>Mohd Khairil Anuar Mohd Wafa</t>
-  </si>
-  <si>
-    <t>David Dass Aseerpatham</t>
-  </si>
-  <si>
-    <t>Khairy Jamaludin Abu Bakar</t>
-  </si>
-  <si>
-    <t>Roseli Abdul Gani</t>
-  </si>
-  <si>
-    <t>Mustafa Dolah</t>
-  </si>
-  <si>
-    <t>Danyal Balagopal Abdullah</t>
-  </si>
-  <si>
-    <t>Mogan Velayatham</t>
-  </si>
-  <si>
-    <t>Mahfuz Roslan</t>
-  </si>
-  <si>
-    <t>Hasan Bahrom</t>
-  </si>
-  <si>
-    <t>Shaziman Abu Mansor</t>
-  </si>
-  <si>
-    <t>Abdul Halim Abu Bakar</t>
-  </si>
-  <si>
-    <t>Mas Ermieyati Samsudin</t>
-  </si>
-  <si>
-    <t>afar</t>
-  </si>
-  <si>
-    <t>Mohd Nasir Othman</t>
-  </si>
-  <si>
-    <t>Mohd Redzuan Md Yusof</t>
-  </si>
-  <si>
-    <t>Wong Nai Chee</t>
-  </si>
-  <si>
-    <t>Mohammad Nazree Mohammad Aris</t>
-  </si>
-  <si>
-    <t>Rusnah Aluai</t>
-  </si>
-  <si>
-    <t>Zali Mat Yasin</t>
-  </si>
-  <si>
-    <t>Zulkifli Ismail</t>
-  </si>
-  <si>
-    <t>Shamsul Iskandar @ Yusre Mohd Akin</t>
-  </si>
-  <si>
-    <t>Mohd Ali Mohd Rustam</t>
-  </si>
-  <si>
-    <t>Md Khalid Kassim</t>
-  </si>
-  <si>
-    <t>Khoo Poay Tiong</t>
-  </si>
-  <si>
-    <t>Choo Wei Sern</t>
-  </si>
-  <si>
-    <t>Goh Leong San</t>
-  </si>
-  <si>
-    <t>Ahmad Hamzah</t>
-  </si>
-  <si>
-    <t>Khairuddin Abu Hassan</t>
-  </si>
-  <si>
-    <t>Abd Alim Shapie</t>
-  </si>
-  <si>
-    <t>Santhara Kumar Ramanaidu</t>
-  </si>
-  <si>
-    <t>Subramaniam K V Sathasivam</t>
-  </si>
-  <si>
-    <t>Khairul Faizi Ahmad Kamil</t>
-  </si>
-  <si>
-    <t>Natrah Ismail</t>
-  </si>
-  <si>
-    <t>Ayub Rahmat</t>
-  </si>
-  <si>
-    <t>Pang Hok Liong</t>
-  </si>
-  <si>
-    <t>Chua Tee Yong</t>
-  </si>
-  <si>
-    <t>Sarchu Sawal</t>
-  </si>
-  <si>
-    <t>Muhyiddin Yassin</t>
-  </si>
-  <si>
-    <t>Ismail Mohamed</t>
-  </si>
-  <si>
-    <t>Ahmad Nawfal Mahfodz</t>
-  </si>
-  <si>
-    <t>Syed Ibrahim Syed Nor</t>
-  </si>
-  <si>
-    <t>Hamim Samuri</t>
-  </si>
-  <si>
-    <t>Rusman Kemin</t>
-  </si>
-  <si>
-    <t>Yeo Bee Yin</t>
-  </si>
-  <si>
-    <t>Koh Chon Chai</t>
-  </si>
-  <si>
-    <t>Zarul @ Mohammad Zahrul Salleh</t>
-  </si>
-  <si>
-    <t>Syed Saddiq Syed Abdul Rahman</t>
-  </si>
-  <si>
-    <t>Razali Ibrahim</t>
-  </si>
-  <si>
-    <t>Abdul Aziz Talib</t>
-  </si>
-  <si>
-    <t>Noraini Ahmad</t>
-  </si>
-  <si>
-    <t>Anis Afida Mohd Azli</t>
-  </si>
-  <si>
-    <t>Ahmad Rosdi Bahari</t>
-  </si>
-  <si>
-    <t>Wee Ka Siong</t>
-  </si>
-  <si>
-    <t>Liew Chin Tong</t>
-  </si>
-  <si>
-    <t>Mardi Marwan</t>
-  </si>
-  <si>
-    <t>Sharuddin Md Salleh</t>
-  </si>
-  <si>
-    <t>Ab Aziz Kaprawi</t>
-  </si>
-  <si>
-    <t>M Ashari Sidon</t>
-  </si>
-  <si>
-    <t>Mohd Rashid Hasnon</t>
-  </si>
-  <si>
-    <t>Haliza Abdullah</t>
-  </si>
-  <si>
-    <t>Mahfodz Mohamed</t>
-  </si>
-  <si>
-    <t>Maszlee Malik</t>
-  </si>
-  <si>
-    <t>Liang Teck Meng</t>
-  </si>
-  <si>
-    <t>Mohd Jubri Selamat</t>
-  </si>
-  <si>
-    <t>Wong Shu Qi</t>
-  </si>
-  <si>
-    <t>Gan Ping Shou @ Gan Ping Sieu</t>
-  </si>
-  <si>
-    <t>Muhammad Hasbullah Md Najib</t>
-  </si>
-  <si>
-    <t>Hishammuddin Hussein</t>
-  </si>
-  <si>
-    <t>Onn Abu Bakar</t>
-  </si>
-  <si>
-    <t>Abd. Latiff Ahmad</t>
-  </si>
-  <si>
-    <t>Md. Nasir Hashim</t>
-  </si>
-  <si>
-    <t>A. Rahman A. Hamid</t>
-  </si>
-  <si>
-    <t>Adham Baba</t>
-  </si>
-  <si>
-    <t>Norjepri Mohamed Jelani</t>
-  </si>
-  <si>
-    <t>Yuhanita Yunan</t>
-  </si>
-  <si>
-    <t>Halimah Mohd Sadique</t>
-  </si>
-  <si>
-    <t>Azlinda Abdul Latif</t>
-  </si>
-  <si>
-    <t>Azalina Othman</t>
-  </si>
-  <si>
-    <t>Norliza Ngadiran</t>
-  </si>
-  <si>
-    <t>Choong Shiau Yoon</t>
-  </si>
-  <si>
-    <t>Hou Kok Chung</t>
-  </si>
-  <si>
-    <t>Abdullah Husin</t>
-  </si>
-  <si>
-    <t>Hassan Abdul Karim</t>
-  </si>
-  <si>
-    <t>Mohamed Khaled Nordin</t>
-  </si>
-  <si>
-    <t>Ab Aziz Abdullah</t>
-  </si>
-  <si>
-    <t>Sey Jock @ Chee Jock</t>
-  </si>
-  <si>
-    <t>Akmal Nasrullah Mohd Nasir</t>
-  </si>
-  <si>
-    <t>Sharil @ Shahrir Ab Samad</t>
-  </si>
-  <si>
-    <t>Salahuddin Ayub</t>
-  </si>
-  <si>
-    <t>Nur Jazlan Mohamed</t>
-  </si>
-  <si>
-    <t>Mohd Mazri Yahya</t>
-  </si>
-  <si>
-    <t>Yap Keng Tak</t>
-  </si>
-  <si>
-    <t>Lim Kit Siang</t>
-  </si>
-  <si>
-    <t>Teoh Sew Hock</t>
-  </si>
-  <si>
-    <t>Teo Nie Ching</t>
-  </si>
-  <si>
-    <t>Tang Nai Soon</t>
-  </si>
-  <si>
-    <t>Juwahir Amin</t>
-  </si>
-  <si>
-    <t>Ahmad Maslan</t>
-  </si>
-  <si>
-    <t>Karmaine Sardini</t>
-  </si>
-  <si>
-    <t>Baharom Mohamad</t>
-  </si>
-  <si>
-    <t>Md Farid Md Rafik</t>
-  </si>
-  <si>
-    <t>Wee Jeck Seng</t>
-  </si>
-  <si>
-    <t>Nordin Othman</t>
-  </si>
-  <si>
-    <t>Abd Rahim Bakri</t>
-  </si>
-  <si>
-    <t>Sh Azman Sh Along</t>
-  </si>
-  <si>
-    <t>Mohd Ashraf Chin Abdullah</t>
-  </si>
-  <si>
-    <t>Johnity @ Maximus Ongkili</t>
-  </si>
-  <si>
-    <t>Maijol Mahap</t>
-  </si>
-  <si>
-    <t>Barlus Mangabis</t>
-  </si>
-  <si>
-    <t>Paul Porodong</t>
-  </si>
-  <si>
-    <t>Isnaraissah Munirah Majilis @ Fakharudy</t>
-  </si>
-  <si>
-    <t>Md Salleh Md Said</t>
-  </si>
-  <si>
-    <t>Miasin @ Aimaduddin Mion</t>
-  </si>
-  <si>
-    <t>Laiman Ikin @ Ag Laiman B Kakimin</t>
-  </si>
-  <si>
-    <t>Madius Tangau</t>
-  </si>
-  <si>
-    <t>Chrisnadia Sinam</t>
-  </si>
-  <si>
-    <t>Kalakau @ Kalakan Untol @ Entol</t>
-  </si>
-  <si>
-    <t>Syra Peter @ P Gom</t>
-  </si>
-  <si>
-    <t>Paumin @ Mohd Aminuddin Aling</t>
-  </si>
-  <si>
-    <t>Mohd Azis Jamman</t>
-  </si>
-  <si>
-    <t>Abd Rahman Dahlan</t>
-  </si>
-  <si>
-    <t>Jeffrey Kumin</t>
-  </si>
-  <si>
-    <t>Robert Sopining</t>
-  </si>
-  <si>
-    <t>Chan Foong Hin</t>
-  </si>
-  <si>
-    <t>Joseph Lee Han Kyun</t>
-  </si>
-  <si>
-    <t>Yong Teck Lee</t>
-  </si>
-  <si>
-    <t>Awang Husaini Sahari</t>
-  </si>
-  <si>
-    <t>Makin @ Marcus Majigoh</t>
-  </si>
-  <si>
-    <t>Zulzaim Hilmee Abidin</t>
-  </si>
-  <si>
-    <t>Jivol @ Edmund Doudilim</t>
-  </si>
-  <si>
-    <t>Mil Kusin Abdillah</t>
-  </si>
-  <si>
-    <t>Ignatius Dorell Leiking</t>
-  </si>
-  <si>
-    <t>Ceasar Mandela Malakun</t>
-  </si>
-  <si>
-    <t>Cleftus Stephen Spine</t>
-  </si>
-  <si>
-    <t>Edwin @ Jack Bosi</t>
-  </si>
-  <si>
-    <t>Ahmad Hassan</t>
-  </si>
-  <si>
-    <t>Rosnah Abd Rashid Shirlin</t>
-  </si>
-  <si>
-    <t>Jamil William Core</t>
-  </si>
-  <si>
-    <t>Elbert Sikuil</t>
-  </si>
-  <si>
-    <t>Anifah Aman @ Haniff Amman</t>
-  </si>
-  <si>
-    <t>Karim Bujang</t>
-  </si>
-  <si>
-    <t>Jaafar Ismail</t>
-  </si>
-  <si>
-    <t>Azizah Mohd Dun</t>
-  </si>
-  <si>
-    <t>Lajim Ukin</t>
-  </si>
-  <si>
-    <t>Johan @ Christopher Ot Ghani</t>
-  </si>
-  <si>
-    <t>Yamani Hafez Musa</t>
-  </si>
-  <si>
-    <t>Noor Hayaty Mustapha</t>
-  </si>
-  <si>
-    <t>Dayang Aezzy Liman</t>
-  </si>
-  <si>
-    <t>Jonathan Yasin</t>
-  </si>
-  <si>
-    <t>Ewon Ebin</t>
-  </si>
-  <si>
-    <t>Soudi @ Sami Andang</t>
-  </si>
-  <si>
-    <t>Andau Yasun @ Bruno</t>
-  </si>
-  <si>
-    <t>Jeffrey Kitingan</t>
-  </si>
-  <si>
-    <t>Jikulin Nointin @ Anastasius</t>
-  </si>
-  <si>
-    <t>Daniel Kinsik</t>
-  </si>
-  <si>
-    <t>Jius Awang</t>
-  </si>
-  <si>
-    <t>Maimin Rijan</t>
-  </si>
-  <si>
-    <t>Justin Guka</t>
-  </si>
-  <si>
-    <t>Noorita Sual</t>
-  </si>
-  <si>
-    <t>Rubin Balang</t>
-  </si>
-  <si>
-    <t>Laimoi @ Yuslinah Laikim</t>
-  </si>
-  <si>
-    <t>Arthur Joseph Kurup</t>
-  </si>
-  <si>
-    <t>Raymond Ahuar</t>
-  </si>
-  <si>
-    <t>Joh Jimmy @ Richard Joe Jimmy</t>
-  </si>
-  <si>
-    <t>Maidin Atak @ Maidin Osman</t>
-  </si>
-  <si>
-    <t>Engah Sintan @ Dahlan Abdullah</t>
-  </si>
-  <si>
-    <t>Ronald Kiandee</t>
-  </si>
-  <si>
-    <t>Japar Zairun</t>
-  </si>
-  <si>
-    <t>Sipin Kadandi</t>
-  </si>
-  <si>
-    <t>Toidy Luit</t>
-  </si>
-  <si>
-    <t>Lem @ Salim Matin</t>
-  </si>
-  <si>
-    <t>Salimah Oyong</t>
-  </si>
-  <si>
-    <t>Zakaria Mohd Edris @ Tubau</t>
-  </si>
-  <si>
-    <t>Irwanshah Mustapa</t>
-  </si>
-  <si>
-    <t>Alfian Mansyur</t>
-  </si>
-  <si>
-    <t>Liew Vui Keong</t>
-  </si>
-  <si>
-    <t>LindaTsen Thau Lin</t>
-  </si>
-  <si>
-    <t>Hamza A. Abdullah @ Hamzah</t>
-  </si>
-  <si>
-    <t>Norsah Bongsu</t>
-  </si>
-  <si>
-    <t>Wong Tien Fatt @ Wong Nyuk Foh</t>
-  </si>
-  <si>
-    <t>Lim Ming Hoo</t>
-  </si>
-  <si>
-    <t>Moktar Radin</t>
-  </si>
-  <si>
-    <t>M A Ghazali Abdul Ghani</t>
-  </si>
-  <si>
-    <t>Mustapa Datu Tambuyong</t>
-  </si>
-  <si>
-    <t>Mohamaddin Ketapi</t>
-  </si>
-  <si>
-    <t>Datu Nasrun Datu Mansur</t>
-  </si>
-  <si>
-    <t>Ramli Pataruddin</t>
-  </si>
-  <si>
-    <t>Siti Shazianti Ajak</t>
-  </si>
-  <si>
-    <t>Mohd Shafie Apdal</t>
-  </si>
-  <si>
-    <t>Ramlee Marahaban</t>
-  </si>
-  <si>
-    <t>Abdul Nasir Ab Raup</t>
-  </si>
-  <si>
-    <t>Asmara Asmad</t>
-  </si>
-  <si>
-    <t>Liew Chin Jin</t>
-  </si>
-  <si>
-    <t>Yap Kain Ching @ Mary Yap Ken Jin</t>
-  </si>
-  <si>
-    <t>Mohamad Husain</t>
-  </si>
-  <si>
-    <t>Alizaman Jijurahman</t>
-  </si>
-  <si>
-    <t>mun Sulaiman</t>
-  </si>
-  <si>
-    <t>Abdul Ghapur Salleh</t>
-  </si>
-  <si>
-    <t>Norbin Aloh</t>
-  </si>
-  <si>
-    <t>Ahmad Lahama</t>
-  </si>
-  <si>
-    <t>Mordi Bimol</t>
-  </si>
-  <si>
-    <t>Nogeh Gumbek</t>
-  </si>
-  <si>
-    <t>Wan Junaidi Tuanku Jaafar</t>
-  </si>
-  <si>
-    <t>Mohamad Fidzuan Zaidi</t>
-  </si>
-  <si>
-    <t>Fadillah Yusof</t>
-  </si>
-  <si>
-    <t>Nor Irwan Ahmat Nor</t>
-  </si>
-  <si>
-    <t>Hamdan Sani</t>
-  </si>
-  <si>
-    <t>Kelvin Yii Lee Wuen</t>
-  </si>
-  <si>
-    <t>Kho Teck Wan</t>
-  </si>
-  <si>
-    <t>Chong Chieng Jen</t>
-  </si>
-  <si>
-    <t>Sim Kui Hian</t>
-  </si>
-  <si>
-    <t>Rubiah Wang</t>
-  </si>
-  <si>
-    <t>Sopian Julaihi</t>
-  </si>
-  <si>
-    <t>Zulkipli Ramzi</t>
-  </si>
-  <si>
-    <t>Willie Mongin</t>
-  </si>
-  <si>
-    <t>Genot Sinel @ Jeannoth Sinel</t>
-  </si>
-  <si>
-    <t>Buln Patrick Ribos</t>
-  </si>
-  <si>
-    <t>Richard Riot Jaem</t>
-  </si>
-  <si>
-    <t>Edward Andrew Luwak @ Edward Luwak</t>
-  </si>
-  <si>
-    <t>Senior William Rade</t>
-  </si>
-  <si>
-    <t>Nancy Shukri</t>
-  </si>
-  <si>
-    <t>Othman Mustapha @ Mos</t>
-  </si>
-  <si>
-    <t>Asan Singkro</t>
-  </si>
-  <si>
-    <t>Rohani Abdul Karim</t>
-  </si>
-  <si>
-    <t>Wan Abdillah Wan Ahmad</t>
-  </si>
-  <si>
-    <t>Narudin Mentali</t>
-  </si>
-  <si>
-    <t>Masir Kujat</t>
-  </si>
-  <si>
-    <t>Norina Umoi Utot</t>
-  </si>
-  <si>
-    <t>Cobbold Lusoi</t>
-  </si>
-  <si>
-    <t>Tambat @ Jugah Muyang</t>
-  </si>
-  <si>
-    <t>Robert Pasang Alam</t>
-  </si>
-  <si>
-    <t>Nicholas Bawin Anggat</t>
-  </si>
-  <si>
-    <t>Robert Lawson Chuat</t>
-  </si>
-  <si>
-    <t>Abang Ahmad Abang Suni</t>
-  </si>
-  <si>
-    <t>Noel Changgai Bucking</t>
-  </si>
-  <si>
-    <t>Ali Biju</t>
-  </si>
-  <si>
-    <t>Jagah @ Subeng Mula</t>
-  </si>
-  <si>
-    <t>Yusuf Abd Wahab</t>
-  </si>
-  <si>
-    <t>Mohamad Fadillah Sabali</t>
-  </si>
-  <si>
-    <t>Ahmad Johnie Zawawi</t>
-  </si>
-  <si>
-    <t>Andri Zulkarnaen Hamden</t>
-  </si>
-  <si>
-    <t>Wong Ling Biu</t>
-  </si>
-  <si>
-    <t>Huang Tiong Sii</t>
-  </si>
-  <si>
-    <t>Wong Chin King</t>
-  </si>
-  <si>
-    <t>Larry Soon @ Larry Sng Wei Shien</t>
-  </si>
-  <si>
-    <t>Joseph Salang Gandum</t>
-  </si>
-  <si>
-    <t>Ago Dagang</t>
-  </si>
-  <si>
-    <t>Satu Anchom</t>
-  </si>
-  <si>
-    <t>Alice Lau Kiong Yieng</t>
-  </si>
-  <si>
-    <t>Kong Sien Chiu</t>
-  </si>
-  <si>
-    <t>Priscilla Lau</t>
-  </si>
-  <si>
-    <t>Oscar Ling Chai Yew</t>
-  </si>
-  <si>
-    <t>Wong Kee Yew</t>
-  </si>
-  <si>
-    <t>Tiew Yen Houng</t>
-  </si>
-  <si>
-    <t>Tiong Ing Tung</t>
-  </si>
-  <si>
-    <t>Hanifah Hajar Taib</t>
-  </si>
-  <si>
-    <t>Abdul Jalil Bujang</t>
-  </si>
-  <si>
-    <t>Baru Bian</t>
-  </si>
-  <si>
-    <t>Rita Sarimah Patrick Insol</t>
-  </si>
-  <si>
-    <t>Alexander Nanta Linggi</t>
-  </si>
-  <si>
-    <t>Paren Nyawi</t>
-  </si>
-  <si>
-    <t>Ugak Kumbong</t>
-  </si>
-  <si>
-    <t>Abun Sui Anyit</t>
-  </si>
-  <si>
-    <t>Tiong King Sing</t>
-  </si>
-  <si>
-    <t>Chiew Chan Yew</t>
-  </si>
-  <si>
-    <t>Chieng Lea Phing</t>
-  </si>
-  <si>
-    <t>Lukanisman Awang Sauni</t>
-  </si>
-  <si>
-    <t>Jemat Panjang</t>
-  </si>
-  <si>
-    <t>Zulaihi Bakar</t>
-  </si>
-  <si>
-    <t>Michael Teo Yu Keng</t>
-  </si>
-  <si>
-    <t>Sebastian Ting Chiew Yew</t>
-  </si>
-  <si>
-    <t>Anyi Ngau</t>
-  </si>
-  <si>
-    <t>Roland Engan</t>
-  </si>
-  <si>
-    <t>Hasbi Habibollah</t>
-  </si>
-  <si>
-    <t>Ricardo Osmund Yampil Baba</t>
-  </si>
-  <si>
-    <t>Henry Sum Agong</t>
-  </si>
-  <si>
-    <t>Danny Piri</t>
-  </si>
-  <si>
-    <t>Mohamad Brahim</t>
+    <t>ZAHIDI ZAINUL ABIDIN</t>
+  </si>
+  <si>
+    <t>IZIZAM IBRAHIM</t>
+  </si>
+  <si>
+    <t>MOKHTAR SENIK</t>
+  </si>
+  <si>
+    <t>NOOR AMIN AHMAD</t>
+  </si>
+  <si>
+    <t>RAMLI SHARIFF</t>
+  </si>
+  <si>
+    <t>MOHAMAD ZAHID IBRAHIM</t>
+  </si>
+  <si>
+    <t>SHAHIDAN KASSIM</t>
+  </si>
+  <si>
+    <t>ABD RAHMAN DAUD</t>
+  </si>
+  <si>
+    <t>HASHIM JASIN</t>
+  </si>
+  <si>
+    <t>MAHATHIR MOHAMAD</t>
+  </si>
+  <si>
+    <t>NAWAWI AHMAD</t>
+  </si>
+  <si>
+    <t>ZUBIR AHMAD</t>
+  </si>
+  <si>
+    <t>MUKHRIZ MAHATHIR</t>
+  </si>
+  <si>
+    <t>ABD GHANI AHMAD</t>
+  </si>
+  <si>
+    <t>OTHMAN AZIZ</t>
+  </si>
+  <si>
+    <t>AMIRUDDIN HAMZAH</t>
+  </si>
+  <si>
+    <t>MOHD JOHARI BAHARUM</t>
+  </si>
+  <si>
+    <t>NORHAFIZA FADZIL</t>
+  </si>
+  <si>
+    <t>MAHDZIR KHALID</t>
+  </si>
+  <si>
+    <t>MOHAMAD AZAM ABD MAJID @ ABD AZIZ</t>
+  </si>
+  <si>
+    <t>MOHD KHAIRIZAL KHAZALI</t>
+  </si>
+  <si>
+    <t>MAHFUZ OMAR</t>
+  </si>
+  <si>
+    <t>MUHAMAD RADHI MAT DIN</t>
+  </si>
+  <si>
+    <t>SAID ALI SAID RASTAN</t>
+  </si>
+  <si>
+    <t>CHAN MING KAI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AMINUR SHAFIQ MOHAMAD ABDUH</t>
+  </si>
+  <si>
+    <t>YOO WEI HOW</t>
+  </si>
+  <si>
+    <t>AZMAN ISMAIL</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RIDUAN OTHMAN</t>
+  </si>
+  <si>
+    <t>ABDULLAH HASNAN KAMARUDDIN</t>
+  </si>
+  <si>
+    <t>AWANG SOLAHUDIN</t>
+  </si>
+  <si>
+    <t>OTHMAN ABDUL</t>
+  </si>
+  <si>
+    <t>WAN SAIFULRUDDIN WAN JAN</t>
+  </si>
+  <si>
+    <t>ABDUL MALIK MANAF</t>
+  </si>
+  <si>
+    <t>SABRI AZIT</t>
+  </si>
+  <si>
+    <t>JAMIL KHIR BAHAROM</t>
+  </si>
+  <si>
+    <t>AKHRAMSYAH MUAMMAR UBAIDAH SANUSI</t>
+  </si>
+  <si>
+    <t>AHMAD TARMIZI SULAIMAN</t>
+  </si>
+  <si>
+    <t>MANSOR ABD RAHMAN</t>
+  </si>
+  <si>
+    <t>AZLI UDA</t>
+  </si>
+  <si>
+    <t>NOR AZRINA SURIP</t>
+  </si>
+  <si>
+    <t>TAJUL URUS MAT ZAIN</t>
+  </si>
+  <si>
+    <t>AHMAD FAUZI RAMLI</t>
+  </si>
+  <si>
+    <t>JOHARI ABDUL</t>
+  </si>
+  <si>
+    <t>SHAHANIM MOHAMAD YUSOFF</t>
+  </si>
+  <si>
+    <t>SHARIR LONG</t>
+  </si>
+  <si>
+    <t>SRITHARAN PICHATHU</t>
+  </si>
+  <si>
+    <t>ABDUL AZEEZ ABDUL RAHIM</t>
+  </si>
+  <si>
+    <t>HASSAN SAAD</t>
+  </si>
+  <si>
+    <t>MOHD TAUFIK YAACOB</t>
+  </si>
+  <si>
+    <t>KARUPAIYA MUTUSAMI</t>
+  </si>
+  <si>
+    <t>MUHAMAD SOBRI OSMAN</t>
+  </si>
+  <si>
+    <t>LEONG YONG KONG</t>
+  </si>
+  <si>
+    <t>SAIFUDDIN NASUTION ISMAIL</t>
+  </si>
+  <si>
+    <t>ABDUL AZIZ SHEIKH FADZIR</t>
+  </si>
+  <si>
+    <t>ABDUL RAMAN ABDUL RAZAK</t>
+  </si>
+  <si>
+    <t>CHE ABDULLAH MAT NAWI</t>
+  </si>
+  <si>
+    <t>WAN JOHANI WAN HUSSIN</t>
+  </si>
+  <si>
+    <t>NORDIN SALLEH</t>
+  </si>
+  <si>
+    <t>AHMAD MARZUK SHAARY</t>
+  </si>
+  <si>
+    <t>ZALUZI SULAIMAN</t>
+  </si>
+  <si>
+    <t>MOHAMAD IBRAHIM</t>
+  </si>
+  <si>
+    <t>TAKIYUDDIN HASSAN</t>
+  </si>
+  <si>
+    <t>HUSAM MUSA</t>
+  </si>
+  <si>
+    <t>FIKHRAN HAMSHI MOHD FATMI</t>
+  </si>
+  <si>
+    <t>AHMAD FADHLI SHAARI</t>
+  </si>
+  <si>
+    <t>NOR AZMAWI AB RAHMAN</t>
+  </si>
+  <si>
+    <t>IBRAHIM ALI</t>
+  </si>
+  <si>
+    <t>CHE UJANG CHE DAUD</t>
+  </si>
+  <si>
+    <t>SITI ZAILAH MOHD YUSOFF</t>
+  </si>
+  <si>
+    <t>ABDULLAH MAT YASIM</t>
+  </si>
+  <si>
+    <t>WAN SHAH JIHAN WAN DIN</t>
+  </si>
+  <si>
+    <t>TUAN IBRAHIM TUAN MAN</t>
+  </si>
+  <si>
+    <t>MUHAMAD ABDUL GHANI</t>
+  </si>
+  <si>
+    <t>ABDUL HALIM YUSOF</t>
+  </si>
+  <si>
+    <t>NIK MOHAMAD ABDUH NIK ABD AZIZ</t>
+  </si>
+  <si>
+    <t>AWANG ADEK HUSSIN</t>
+  </si>
+  <si>
+    <t>ZULKIFLI ZAKARIA</t>
+  </si>
+  <si>
+    <t>ANNUAR MUSA</t>
+  </si>
+  <si>
+    <t>WAN ISMAIL WAN JUSOH</t>
+  </si>
+  <si>
+    <t>MOHD RADZIJIDIN</t>
+  </si>
+  <si>
+    <t>IKMAL HISHAM ABDUL AZIZ</t>
+  </si>
+  <si>
+    <t>JOHARI MAT</t>
+  </si>
+  <si>
+    <t>MOHAMAD FAUZI ZAKARIA</t>
+  </si>
+  <si>
+    <t>NIK MUHAMMAD ZAWAWI SALLEH</t>
+  </si>
+  <si>
+    <t>ASYRAF WAJDI DUSUKI</t>
+  </si>
+  <si>
+    <t>KAMARUDDIN MD NOOR</t>
+  </si>
+  <si>
+    <t>AHMAD JAZLAN YAAKUB</t>
+  </si>
+  <si>
+    <t>ZULKIFLI MAMAT</t>
+  </si>
+  <si>
+    <t>SAZMI MIAH</t>
+  </si>
+  <si>
+    <t>MUSTAPA MOHAMED</t>
+  </si>
+  <si>
+    <t>MOHAMAD HAMID</t>
+  </si>
+  <si>
+    <t>AZRAN DERAMAN</t>
+  </si>
+  <si>
+    <t>ABDUL LATIFF ABDUL RAHMAN</t>
+  </si>
+  <si>
+    <t>RAMZI AB RAHMAN</t>
+  </si>
+  <si>
+    <t>MOHD YAZID ABDULLAH</t>
+  </si>
+  <si>
+    <t>TENGKU RAZALEIGH TENGKU MOHD HAMZAH</t>
+  </si>
+  <si>
+    <t>ABDULLAH HUSSEIN</t>
+  </si>
+  <si>
+    <t>MOHD NOR HUSSIN</t>
+  </si>
+  <si>
+    <t>IDRIS JUSOH</t>
+  </si>
+  <si>
+    <t>RIDUAN MOHAMAD NOR</t>
+  </si>
+  <si>
+    <t>WAN NAZARI WAN JUSOH</t>
+  </si>
+  <si>
+    <t>SHAHARIZUKIRNAIN ABD KADIR</t>
+  </si>
+  <si>
+    <t>MOHD JIDIN SHAFEE</t>
+  </si>
+  <si>
+    <t>MOHD FAUDZI MUSA</t>
+  </si>
+  <si>
+    <t>MOHD KHAIRUDDIN AMAN RAZALI</t>
+  </si>
+  <si>
+    <t>TENGKU ASMADI TENGKU MOHAMAD</t>
+  </si>
+  <si>
+    <t>ABDULLAH MOHAMED</t>
+  </si>
+  <si>
+    <t>AHMAD AMZAD MOHAMED @ HASHIM</t>
+  </si>
+  <si>
+    <t>WAN NAWAWI WAN ISMAIL</t>
+  </si>
+  <si>
+    <t>RAJA KAMARUL BAHRIN SHAH</t>
+  </si>
+  <si>
+    <t>ABDUL HADI AWANG</t>
+  </si>
+  <si>
+    <t>MOHAMAD NOR ENDOT</t>
+  </si>
+  <si>
+    <t>ZARAWI SULONG</t>
+  </si>
+  <si>
+    <t>ROSOL WAHID</t>
+  </si>
+  <si>
+    <t>MUHYIDIN ABDUL RASHID</t>
+  </si>
+  <si>
+    <t>RAZALI  IDRIS</t>
+  </si>
+  <si>
+    <t>WAN HASSAN MOHD RAMLI</t>
+  </si>
+  <si>
+    <t>DIN ADAM</t>
+  </si>
+  <si>
+    <t>ABD RAHMAN YUSOF</t>
+  </si>
+  <si>
+    <t>CHE ALIAS HAMID</t>
+  </si>
+  <si>
+    <t>AHMAD SHABERY CHEEK</t>
+  </si>
+  <si>
+    <t>MOHD HUZAIFAH MD SUHAIMI</t>
+  </si>
+  <si>
+    <t>REEZAL MERICAN NAINA MERICAN</t>
+  </si>
+  <si>
+    <t>ZAIDI ZAKARIA</t>
+  </si>
+  <si>
+    <t>SITI MASTURA MUHAMMAD</t>
+  </si>
+  <si>
+    <t>SHABUDIN YAHAYA</t>
+  </si>
+  <si>
+    <t>MARZUKI YAHYA</t>
+  </si>
+  <si>
+    <t>RIZAL HAFIZ RUSLAN</t>
+  </si>
+  <si>
+    <t>LIM GUAN ENG</t>
+  </si>
+  <si>
+    <t>LEE BENG SENG</t>
+  </si>
+  <si>
+    <t>HUAN CHENG GUAN</t>
+  </si>
+  <si>
+    <t>KOAY XING BOON</t>
+  </si>
+  <si>
+    <t>NURUL IZZAH ANWAR</t>
+  </si>
+  <si>
+    <t>MOHD ZAIDI MOHD SAID</t>
+  </si>
+  <si>
+    <t>AFNAN HAMIMI TAIB AZAMUDDEN</t>
+  </si>
+  <si>
+    <t>SIM CHEE KEONG</t>
+  </si>
+  <si>
+    <t>GUI GUAT LYE</t>
+  </si>
+  <si>
+    <t>KASTHURIRAANI PATTO</t>
+  </si>
+  <si>
+    <t>JAYANTHI DEVI BALAGURU</t>
+  </si>
+  <si>
+    <t>JAY KUMAR BALAKRISHNA</t>
+  </si>
+  <si>
+    <t>OOI KHAR GIAP</t>
+  </si>
+  <si>
+    <t>MANSOR OTHMAN</t>
+  </si>
+  <si>
+    <t>SHAIK HUSSEIN MYDIN</t>
+  </si>
+  <si>
+    <t>MOHD HELMI HARON</t>
+  </si>
+  <si>
+    <t>TAN TEE BENG</t>
+  </si>
+  <si>
+    <t>WONG HON WAI</t>
+  </si>
+  <si>
+    <t>ANDY YONG KIM SENG</t>
+  </si>
+  <si>
+    <t>TAN GIM THEAM</t>
+  </si>
+  <si>
+    <t>CHOW KON YEOW</t>
+  </si>
+  <si>
+    <t>NG SIEW LAI</t>
+  </si>
+  <si>
+    <t>SANISVARA NETHAJI RAYER RAJAJI</t>
+  </si>
+  <si>
+    <t>BALJIT SINGH JIGIRI SINGH</t>
+  </si>
+  <si>
+    <t>TAN SIM BEE</t>
+  </si>
+  <si>
+    <t>RAMKARPAL SINGH KARPAL SINGH</t>
+  </si>
+  <si>
+    <t>LOW JOO HIAP</t>
+  </si>
+  <si>
+    <t>LAI XUE CHING</t>
+  </si>
+  <si>
+    <t>SIM TZE TZIN</t>
+  </si>
+  <si>
+    <t>CHUAH SENG GUAN</t>
+  </si>
+  <si>
+    <t>ISZUREE IBRAHIM</t>
+  </si>
+  <si>
+    <t>DAVID YIM BOON LEONG</t>
+  </si>
+  <si>
+    <t>MUHAMMAD BAKHTIAR WAN CHIK</t>
+  </si>
+  <si>
+    <t>HILMI YAHAYA</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>HASBULLAH OSMAN</t>
+  </si>
+  <si>
+    <t>MOHD DAHALAN ISMAIL</t>
+  </si>
+  <si>
+    <t>IBRAHIM MOHD HANAFIAH</t>
+  </si>
+  <si>
+    <t>SHAMSUL ANUAR NASARAH</t>
+  </si>
+  <si>
+    <t>MUHAMMAD MUJAHID MOHAMMAD FADZIL</t>
+  </si>
+  <si>
+    <t>AMIRUL FAIRUZZEEN JAMALUDDIN</t>
+  </si>
+  <si>
+    <t>HAMZAH ZAINUDIN</t>
+  </si>
+  <si>
+    <t>ABU HUSIN MOHMMAD</t>
+  </si>
+  <si>
+    <t>KHAIRIL ANUAR AKHIRUDDIN</t>
+  </si>
+  <si>
+    <t>MUJAHID YUSOF</t>
+  </si>
+  <si>
+    <t>ABDUL PUHAT MAT NAYAN</t>
+  </si>
+  <si>
+    <t>AHMAD AZHAR SHARIN</t>
+  </si>
+  <si>
+    <t>NOOR AZMI GHAZALI</t>
+  </si>
+  <si>
+    <t>ROHAYA BAKAR</t>
+  </si>
+  <si>
+    <t>ADAM ASMUNI</t>
+  </si>
+  <si>
+    <t>SYED ABU HUSSIN HAFIZ SYED ABDUL FASAL</t>
+  </si>
+  <si>
+    <t>KHADRI KHALID</t>
+  </si>
+  <si>
+    <t>IDRIS AHMAD</t>
+  </si>
+  <si>
+    <t>TEH KOK LIM</t>
+  </si>
+  <si>
+    <t>TAN KENG LIANG</t>
+  </si>
+  <si>
+    <t>IBRAHIM ISMAIL</t>
+  </si>
+  <si>
+    <t>MOHAMED NAZRI ABDUL AZIZ</t>
+  </si>
+  <si>
+    <t>EJAZI YAHAYA</t>
+  </si>
+  <si>
+    <t>MOHAMAD AZALAN MOHAMAD RADZI</t>
+  </si>
+  <si>
+    <t>KESAVAN SUBRAMANIAM</t>
+  </si>
+  <si>
+    <t>DEVAMANY KRISHNASAMY</t>
+  </si>
+  <si>
+    <t>ISHAK IBRAHIM</t>
+  </si>
+  <si>
+    <t>MICHAEL JEYAKUMAR DEVARAJ</t>
+  </si>
+  <si>
+    <t>AHMAD FAIZAL AZUMU</t>
+  </si>
+  <si>
+    <t>AHMAD HUSNI MOHAMAD HANADZLAH</t>
+  </si>
+  <si>
+    <t>MUHAMAD ZULKIFLI MOHAMAD ZAKARIA</t>
+  </si>
+  <si>
+    <t>WONG KAH WOH</t>
+  </si>
+  <si>
+    <t>KATHLEEN WONG MEI YIN</t>
+  </si>
+  <si>
+    <t>KULASEGARAN MURUGESON</t>
+  </si>
+  <si>
+    <t>CHENG WEI YEE</t>
+  </si>
+  <si>
+    <t>SIVAKUMAR VARATHARAJU NAIDU</t>
+  </si>
+  <si>
+    <t>LEONG CHEE WAI</t>
+  </si>
+  <si>
+    <t>KUNASEKARAN KRISHNAN</t>
+  </si>
+  <si>
+    <t>MASTURA MOHD YAZID</t>
+  </si>
+  <si>
+    <t>AHMAD TERMIZI RAMLI</t>
+  </si>
+  <si>
+    <t>KHALIL IDHAM LIM ABDULLAH</t>
+  </si>
+  <si>
+    <t>NGEH KOO HAM</t>
+  </si>
+  <si>
+    <t>PANG CHOK KING</t>
+  </si>
+  <si>
+    <t>MOHAMAD NAZEER M K M HAMEED</t>
+  </si>
+  <si>
+    <t>MOHD NIZAR ZAKARIA</t>
+  </si>
+  <si>
+    <t>NAJIHATUSSALEHAH AHMAD</t>
+  </si>
+  <si>
+    <t>AHMAD TARMIZI MOHD JAM</t>
+  </si>
+  <si>
+    <t>SU KEONG SIONG</t>
+  </si>
+  <si>
+    <t>LEE CHEE LEONG</t>
+  </si>
+  <si>
+    <t>YOUGAN MAHALINGAM</t>
+  </si>
+  <si>
+    <t>LEE BOON CHYE</t>
+  </si>
+  <si>
+    <t>HENG SEAI KIE</t>
+  </si>
+  <si>
+    <t>ISMAIL ARIFFIN</t>
+  </si>
+  <si>
+    <t>SARAVANAN MURUGAN</t>
+  </si>
+  <si>
+    <t>MOHAMED AZNI MOHAMED ALI</t>
+  </si>
+  <si>
+    <t>NORAZLI MUSA</t>
+  </si>
+  <si>
+    <t>TAJUDDIN ABDUL RAHMAN</t>
+  </si>
+  <si>
+    <t>SALIHUDDIN RADIN SUMADI</t>
+  </si>
+  <si>
+    <t>ZAFARULAZHAN ZAN</t>
+  </si>
+  <si>
+    <t>MOHD HATTA MD RAMLI</t>
+  </si>
+  <si>
+    <t>ZAMBRY ABD KADIR</t>
+  </si>
+  <si>
+    <t>MOHAMMED ZAMRI IBRAHIM</t>
+  </si>
+  <si>
+    <t>AHMAD ZAHID HAMIDI</t>
+  </si>
+  <si>
+    <t>PAKHRURRAZI ARSHAD</t>
+  </si>
+  <si>
+    <t>ATA ABDUL MUNEIM HASAN ADLI</t>
+  </si>
+  <si>
+    <t>NGA KOR MING</t>
+  </si>
+  <si>
+    <t>MAH SIEW KEONG</t>
+  </si>
+  <si>
+    <t>AHMAD RAMADZAN AHMAD DAUD</t>
+  </si>
+  <si>
+    <t>CHANG LIH KANG</t>
+  </si>
+  <si>
+    <t>MAH HANG SOON</t>
+  </si>
+  <si>
+    <t>MOHD TARMIZI AB RAHMAN</t>
+  </si>
+  <si>
+    <t>SIVARAJ CHANDRAN</t>
+  </si>
+  <si>
+    <t>MANOGARAN MARIMUTHU</t>
+  </si>
+  <si>
+    <t>WAN MAHADIR WAN MAHMUD</t>
+  </si>
+  <si>
+    <t>SURESH KUMAR BALASUBRAMANIAM</t>
+  </si>
+  <si>
+    <t>MOHD TAHIR KASSIM</t>
+  </si>
+  <si>
+    <t>ABDUL RAHMAN MOHAMAD</t>
+  </si>
+  <si>
+    <t>BADARUDIN ABD RAHAMAN</t>
+  </si>
+  <si>
+    <t>SOBIRIN DULI</t>
+  </si>
+  <si>
+    <t>TENGKU ZULPURI SHAH RAJA PUJI</t>
+  </si>
+  <si>
+    <t>CHEW MEI FUN</t>
+  </si>
+  <si>
+    <t>MOHAMED NILAM ABDUL MANAP</t>
+  </si>
+  <si>
+    <t>AHMAD NAZLAN IDRIS</t>
+  </si>
+  <si>
+    <t>YOHANIS AHMAD</t>
+  </si>
+  <si>
+    <t>WAN MOHD SHAHARIR WAN ABD JALIL</t>
+  </si>
+  <si>
+    <t>SAIFUDDIN ABDULLAH</t>
+  </si>
+  <si>
+    <t>JOHAN MAT SAH</t>
+  </si>
+  <si>
+    <t>NASRUDIN HASSAN</t>
+  </si>
+  <si>
+    <t>FUZIAH SALLEH</t>
+  </si>
+  <si>
+    <t>SULAIMAN MD DERUS</t>
+  </si>
+  <si>
+    <t>WONG KEAN HWEE</t>
+  </si>
+  <si>
+    <t>MOHD SHAHAR ABDULLAH</t>
+  </si>
+  <si>
+    <t>MOHAMAD AZHAR MOHD NOOR</t>
+  </si>
+  <si>
+    <t>MOHD ASHRAF MUSTAQIM BADRUL MUNIR</t>
+  </si>
+  <si>
+    <t>MOHD NAJIB ABD RAZAK</t>
+  </si>
+  <si>
+    <t>AHIATUDIN DAUD</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ZAHID MD ARIP</t>
+  </si>
+  <si>
+    <t>ABD KADIR SAINUDIN</t>
+  </si>
+  <si>
+    <t>ISMAIL ABD MUTTALIB</t>
+  </si>
+  <si>
+    <t>HASENAN HARON</t>
+  </si>
+  <si>
+    <t>AHMAD FARID AHMAD NORDIN</t>
+  </si>
+  <si>
+    <t>ISMAIL MOHAMED SAID</t>
+  </si>
+  <si>
+    <t>KAMAL ASHAARI</t>
+  </si>
+  <si>
+    <t>MOHAMAD RAFIDEE HASSIM</t>
+  </si>
+  <si>
+    <t>MOHD ANUAR MOHD TAHIR</t>
+  </si>
+  <si>
+    <t>MOHD SHARKAR SHAMSUDIN</t>
+  </si>
+  <si>
+    <t>MD JUSOH DARUS</t>
+  </si>
+  <si>
+    <t>MOHD KHAIDIR AHMAD</t>
+  </si>
+  <si>
+    <t>MUHAMAD FAKHRUDIN ABU HANIPAH</t>
+  </si>
+  <si>
+    <t>WONG TACK</t>
+  </si>
+  <si>
+    <t>LIOW TIONG LAI</t>
+  </si>
+  <si>
+    <t>BALASUBRAMANIAM NACHIAPPAN</t>
+  </si>
+  <si>
+    <t>ISMAIL SABRI YAAKOB</t>
+  </si>
+  <si>
+    <t>ZAKARIA ABDUL HAMID</t>
+  </si>
+  <si>
+    <t>MUSANIFF AB RAHMAN</t>
+  </si>
+  <si>
+    <t>HASAN ARIFIN</t>
+  </si>
+  <si>
+    <t>M SHAHRUL NIZAM ABDUL HALIFF</t>
+  </si>
+  <si>
+    <t>SITARUNISAH AB KADIR</t>
+  </si>
+  <si>
+    <t>MOHD FASIAH MOHD FAKEH</t>
+  </si>
+  <si>
+    <t>WARNO DOGOL</t>
+  </si>
+  <si>
+    <t>MUHAMMAD LABIB ABD JALIL</t>
+  </si>
+  <si>
+    <t>MUSLIMIN YAHAYA</t>
+  </si>
+  <si>
+    <t>BUDIMAN MOHD ZOHDI</t>
+  </si>
+  <si>
+    <t>MOHAMED SALLEH M HUSIN</t>
+  </si>
+  <si>
+    <t>LEOW HSIAD HUI</t>
+  </si>
+  <si>
+    <t>KAMALANATHAN PANCHANATHAN</t>
+  </si>
+  <si>
+    <t>WAN MAT SULAIMAN</t>
+  </si>
+  <si>
+    <t>KUMAR PARAMASIVAM</t>
+  </si>
+  <si>
+    <t>NOH OMAR</t>
+  </si>
+  <si>
+    <t>ZULKAFPERI HANAPI</t>
+  </si>
+  <si>
+    <t>NOR AZ AZLAN AHMAD</t>
+  </si>
+  <si>
+    <t>DZULKEFLY AHMAD</t>
+  </si>
+  <si>
+    <t>IRMOHIZAM IBRAHIM</t>
+  </si>
+  <si>
+    <t>MOHD FAKARUDDIN ISMAIL</t>
+  </si>
+  <si>
+    <t>WILLIAM LEONG JEE KEEN</t>
+  </si>
+  <si>
+    <t>KANG MENG FUAT</t>
+  </si>
+  <si>
+    <t>HASHIM ABD KARIM</t>
+  </si>
+  <si>
+    <t>MOHAMED AZMIN ALI</t>
+  </si>
+  <si>
+    <t>ABDUL RAHIM PANDAK KAMARUDIN</t>
+  </si>
+  <si>
+    <t>KHAIRIL NIZAM KHIRUDIN</t>
+  </si>
+  <si>
+    <t>ZURAIDA KAMARUDDIN</t>
+  </si>
+  <si>
+    <t>LEONG KIM SOON</t>
+  </si>
+  <si>
+    <t>NURUL ISLAM MOHAMED YUSOFF</t>
+  </si>
+  <si>
+    <t>TAN HUA MENG</t>
+  </si>
+  <si>
+    <t>WAN AZIZAH WAN ISMAIL</t>
+  </si>
+  <si>
+    <t>LEONG KOK WEE</t>
+  </si>
+  <si>
+    <t>MOHAMED SUKRI OMAR</t>
+  </si>
+  <si>
+    <t>LEE YING HA</t>
+  </si>
+  <si>
+    <t>MOHD KHAIRUL AZAM ABDUL AZIZ</t>
+  </si>
+  <si>
+    <t>HASANUDDIN MOHD YUNUS</t>
+  </si>
+  <si>
+    <t>AZMAN AHMAD</t>
+  </si>
+  <si>
+    <t>CHE ROSLI CHE MAT</t>
+  </si>
+  <si>
+    <t>ONG KIAN MING</t>
+  </si>
+  <si>
+    <t>MOHD SHAFIE NGAH</t>
+  </si>
+  <si>
+    <t>LIEW YUEN KEONG</t>
+  </si>
+  <si>
+    <t>WAN JINN WOEI</t>
+  </si>
+  <si>
+    <t>GOBIND SINGH DEO</t>
+  </si>
+  <si>
+    <t>ANG CHIN TAT</t>
+  </si>
+  <si>
+    <t>MOHAMAD ROSHARIZAN MOHD ROZLAN</t>
+  </si>
+  <si>
+    <t>WONG CHEN</t>
+  </si>
+  <si>
+    <t>TAN SEONG LIM</t>
+  </si>
+  <si>
+    <t>MOHD SHAHIR MOHD ADNAN</t>
+  </si>
+  <si>
+    <t>TOH SIN WAH</t>
+  </si>
+  <si>
+    <t>MARIA CHIN ABDULLAH</t>
+  </si>
+  <si>
+    <t>CHEW HIAN TAT</t>
+  </si>
+  <si>
+    <t>NORAINI HUSSIN</t>
+  </si>
+  <si>
+    <t>PUA KIAM WEE</t>
+  </si>
+  <si>
+    <t>HO KWOK XHENG</t>
+  </si>
+  <si>
+    <t>WONG MUN KHEONG</t>
+  </si>
+  <si>
+    <t>SIVARASA RASIAH</t>
+  </si>
+  <si>
+    <t>NURIDAH MOHD SALLEH</t>
+  </si>
+  <si>
+    <t>PAKAS RAO APPLANAIDOO</t>
+  </si>
+  <si>
+    <t>ZAINURRIZZAMAN MOHRAM</t>
+  </si>
+  <si>
+    <t>KHALID ABD SAMAD</t>
+  </si>
+  <si>
+    <t>AZHARI SHAARI</t>
+  </si>
+  <si>
+    <t>MOHD ZUHDI MARSUKI</t>
+  </si>
+  <si>
+    <t>ABDULLAH SANI ABDUL HAMID</t>
+  </si>
+  <si>
+    <t>ABD RANI OSMAN</t>
+  </si>
+  <si>
+    <t>MOHANA MUNIANDY RAMAN</t>
+  </si>
+  <si>
+    <t>MANIKAVASAGAM SUNDARAM</t>
+  </si>
+  <si>
+    <t>CHARLES ANTHONY R SANTIAGO</t>
+  </si>
+  <si>
+    <t>CHING EU BOON</t>
+  </si>
+  <si>
+    <t>KHAIRUL SHAH ABDULLAH</t>
+  </si>
+  <si>
+    <t>PUVANANDERAN GANASAMOORTHY</t>
+  </si>
+  <si>
+    <t>MOHAMAD SABU</t>
+  </si>
+  <si>
+    <t>MOHAMED DIAH BAHARUN</t>
+  </si>
+  <si>
+    <t>GUNALAN VELU</t>
+  </si>
+  <si>
+    <t>XAVIER JAYAKUMAR ARULANANDAM</t>
+  </si>
+  <si>
+    <t>SHAHRIL SUFIAN HAMDAN</t>
+  </si>
+  <si>
+    <t>YAHYA BABA</t>
+  </si>
+  <si>
+    <t>MOHAMED HANIPA MAIDIN</t>
+  </si>
+  <si>
+    <t>MARSUM PAING</t>
+  </si>
+  <si>
+    <t>SABIRIN MARSONO</t>
+  </si>
+  <si>
+    <t>LIM LIP ENG</t>
+  </si>
+  <si>
+    <t>ONG SIANG LIANG</t>
+  </si>
+  <si>
+    <t>PRABAKARAN PARAMESWARAN</t>
+  </si>
+  <si>
+    <t>DOMINIC LAU HOE CHAI</t>
+  </si>
+  <si>
+    <t>AZHAR YAHYA</t>
+  </si>
+  <si>
+    <t>PANJAMORTHY MUTHUSAMI</t>
+  </si>
+  <si>
+    <t>TAN YEE KEW</t>
+  </si>
+  <si>
+    <t>YEW TEONG LOOK</t>
+  </si>
+  <si>
+    <t>RAZALI TUMIRIN</t>
+  </si>
+  <si>
+    <t>HANNAH YEOH</t>
+  </si>
+  <si>
+    <t>LOGA BALA MOHAN JAGANATHAN</t>
+  </si>
+  <si>
+    <t>MOHD SOLLEH AB RAZAK</t>
+  </si>
+  <si>
+    <t>NIK NAZMI NIK AHMAD</t>
+  </si>
+  <si>
+    <t>ZULHASNAN RAFIQUE</t>
+  </si>
+  <si>
+    <t>UBAID ABD AKLA</t>
+  </si>
+  <si>
+    <t>RINA MOHD HARUN</t>
+  </si>
+  <si>
+    <t>JOHARI ABDUL GHANI</t>
+  </si>
+  <si>
+    <t>MOHAMAD NOOR MOHAMAD</t>
+  </si>
+  <si>
+    <t>FONG KUI LUN</t>
+  </si>
+  <si>
+    <t>TAN EAN EAN</t>
+  </si>
+  <si>
+    <t>KHAIRUL HUSNI OTHMAN</t>
+  </si>
+  <si>
+    <t>AHMAD FAHMI MOHAMED FADZIL</t>
+  </si>
+  <si>
+    <t>RAJA NONG CHIK RAJA ZAINAL ABIDIN</t>
+  </si>
+  <si>
+    <t>FAUZI ABU BAKAR</t>
+  </si>
+  <si>
+    <t>TERESA KOK SUH SIM</t>
+  </si>
+  <si>
+    <t>CHAN QUIN ER</t>
+  </si>
+  <si>
+    <t>TAN KOK WAI</t>
+  </si>
+  <si>
+    <t>HENG SINN YEE</t>
+  </si>
+  <si>
+    <t>KAMARUDIN JAFFAR</t>
+  </si>
+  <si>
+    <t>ADNAN SEMAN @ ABDULLAH</t>
+  </si>
+  <si>
+    <t>ROSNI ADAM</t>
+  </si>
+  <si>
+    <t>TENGKU ADNAN TENGKU MANSOR</t>
+  </si>
+  <si>
+    <t>SAMSU ADABI MAMAT</t>
+  </si>
+  <si>
+    <t>ZAINAL ABIDIN KIDAM</t>
+  </si>
+  <si>
+    <t>ROZMAN ISLI</t>
+  </si>
+  <si>
+    <t>NOOR HALIM ZAINI</t>
+  </si>
+  <si>
+    <t>AHMAD JUNID @ JUNIT MOHD ALING @ ALING</t>
+  </si>
+  <si>
+    <t>SITI ZALEHA IBRAHIM</t>
+  </si>
+  <si>
+    <t>JALALUDIN ALIAS</t>
+  </si>
+  <si>
+    <t>MUSTAFAR AB KADIR</t>
+  </si>
+  <si>
+    <t>NORMAN IPIN</t>
+  </si>
+  <si>
+    <t>MOHD SALIM SHARIF</t>
+  </si>
+  <si>
+    <t>KAMARULZAMAN KAMDIAS</t>
+  </si>
+  <si>
+    <t>MUSTAFFA DAHARUN</t>
+  </si>
+  <si>
+    <t>LOKE SIEW FOOK</t>
+  </si>
+  <si>
+    <t>CHONG SIN WOON</t>
+  </si>
+  <si>
+    <t>SHARIFFUDDIN AHMAD</t>
+  </si>
+  <si>
+    <t>EDDIN SYAZLEE SHITH</t>
+  </si>
+  <si>
+    <t>HASAN MALEK</t>
+  </si>
+  <si>
+    <t>RAFIEI MUSTAPHA</t>
+  </si>
+  <si>
+    <t>CHA KEE CHIN</t>
+  </si>
+  <si>
+    <t>NG KIAN NAM</t>
+  </si>
+  <si>
+    <t>MOHD KHAIRIL ANUAR MOHD WAFA</t>
+  </si>
+  <si>
+    <t>DAVID DASS ASEERPATHAM</t>
+  </si>
+  <si>
+    <t>KHAIRY JAMALUDIN ABU BAKAR</t>
+  </si>
+  <si>
+    <t>ROSELI ABDUL GANI</t>
+  </si>
+  <si>
+    <t>MUSTAFA DOLAH</t>
+  </si>
+  <si>
+    <t>DANYAL BALAGOPAL ABDULLAH</t>
+  </si>
+  <si>
+    <t>MOGAN VELAYATHAM</t>
+  </si>
+  <si>
+    <t>MAHFUZ ROSLAN</t>
+  </si>
+  <si>
+    <t>HASAN BAHROM</t>
+  </si>
+  <si>
+    <t>SHAZIMAN ABU MANSOR</t>
+  </si>
+  <si>
+    <t>ABDUL HALIM ABU BAKAR</t>
+  </si>
+  <si>
+    <t>MAS ERMIEYATI SAMSUDIN</t>
+  </si>
+  <si>
+    <t>AFAR</t>
+  </si>
+  <si>
+    <t>MOHD NASIR OTHMAN</t>
+  </si>
+  <si>
+    <t>MOHD REDZUAN MD YUSOF</t>
+  </si>
+  <si>
+    <t>WONG NAI CHEE</t>
+  </si>
+  <si>
+    <t>MOHAMMAD NAZREE MOHAMMAD ARIS</t>
+  </si>
+  <si>
+    <t>RUSNAH ALUAI</t>
+  </si>
+  <si>
+    <t>ZALI MAT YASIN</t>
+  </si>
+  <si>
+    <t>ZULKIFLI ISMAIL</t>
+  </si>
+  <si>
+    <t>SHAMSUL ISKANDAR @ YUSRE MOHD AKIN</t>
+  </si>
+  <si>
+    <t>MOHD ALI MOHD RUSTAM</t>
+  </si>
+  <si>
+    <t>MD KHALID KASSIM</t>
+  </si>
+  <si>
+    <t>KHOO POAY TIONG</t>
+  </si>
+  <si>
+    <t>CHOO WEI SERN</t>
+  </si>
+  <si>
+    <t>GOH LEONG SAN</t>
+  </si>
+  <si>
+    <t>AHMAD HAMZAH</t>
+  </si>
+  <si>
+    <t>KHAIRUDDIN ABU HASSAN</t>
+  </si>
+  <si>
+    <t>ABD ALIM SHAPIE</t>
+  </si>
+  <si>
+    <t>SANTHARA KUMAR RAMANAIDU</t>
+  </si>
+  <si>
+    <t>SUBRAMANIAM K V SATHASIVAM</t>
+  </si>
+  <si>
+    <t>KHAIRUL FAIZI AHMAD KAMIL</t>
+  </si>
+  <si>
+    <t>NATRAH ISMAIL</t>
+  </si>
+  <si>
+    <t>AYUB RAHMAT</t>
+  </si>
+  <si>
+    <t>PANG HOK LIONG</t>
+  </si>
+  <si>
+    <t>CHUA TEE YONG</t>
+  </si>
+  <si>
+    <t>SARCHU SAWAL</t>
+  </si>
+  <si>
+    <t>MUHYIDDIN YASSIN</t>
+  </si>
+  <si>
+    <t>ISMAIL MOHAMED</t>
+  </si>
+  <si>
+    <t>AHMAD NAWFAL MAHFODZ</t>
+  </si>
+  <si>
+    <t>SYED IBRAHIM SYED NOR</t>
+  </si>
+  <si>
+    <t>HAMIM SAMURI</t>
+  </si>
+  <si>
+    <t>RUSMAN KEMIN</t>
+  </si>
+  <si>
+    <t>YEO BEE YIN</t>
+  </si>
+  <si>
+    <t>KOH CHON CHAI</t>
+  </si>
+  <si>
+    <t>ZARUL @ MOHAMMAD ZAHRUL SALLEH</t>
+  </si>
+  <si>
+    <t>SYED SADDIQ SYED ABDUL RAHMAN</t>
+  </si>
+  <si>
+    <t>RAZALI IBRAHIM</t>
+  </si>
+  <si>
+    <t>ABDUL AZIZ TALIB</t>
+  </si>
+  <si>
+    <t>NORAINI AHMAD</t>
+  </si>
+  <si>
+    <t>ANIS AFIDA MOHD AZLI</t>
+  </si>
+  <si>
+    <t>AHMAD ROSDI BAHARI</t>
+  </si>
+  <si>
+    <t>WEE KA SIONG</t>
+  </si>
+  <si>
+    <t>LIEW CHIN TONG</t>
+  </si>
+  <si>
+    <t>MARDI MARWAN</t>
+  </si>
+  <si>
+    <t>SHARUDDIN MD SALLEH</t>
+  </si>
+  <si>
+    <t>AB AZIZ KAPRAWI</t>
+  </si>
+  <si>
+    <t>M ASHARI SIDON</t>
+  </si>
+  <si>
+    <t>MOHD RASHID HASNON</t>
+  </si>
+  <si>
+    <t>HALIZA ABDULLAH</t>
+  </si>
+  <si>
+    <t>MAHFODZ MOHAMED</t>
+  </si>
+  <si>
+    <t>MASZLEE MALIK</t>
+  </si>
+  <si>
+    <t>LIANG TECK MENG</t>
+  </si>
+  <si>
+    <t>MOHD JUBRI SELAMAT</t>
+  </si>
+  <si>
+    <t>WONG SHU QI</t>
+  </si>
+  <si>
+    <t>GAN PING SHOU @ GAN PING SIEU</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HASBULLAH MD NAJIB</t>
+  </si>
+  <si>
+    <t>HISHAMMUDDIN HUSSEIN</t>
+  </si>
+  <si>
+    <t>ONN ABU BAKAR</t>
+  </si>
+  <si>
+    <t>ABD. LATIFF AHMAD</t>
+  </si>
+  <si>
+    <t>MD. NASIR HASHIM</t>
+  </si>
+  <si>
+    <t>A. RAHMAN A. HAMID</t>
+  </si>
+  <si>
+    <t>ADHAM BABA</t>
+  </si>
+  <si>
+    <t>NORJEPRI MOHAMED JELANI</t>
+  </si>
+  <si>
+    <t>YUHANITA YUNAN</t>
+  </si>
+  <si>
+    <t>HALIMAH MOHD SADIQUE</t>
+  </si>
+  <si>
+    <t>AZLINDA ABDUL LATIF</t>
+  </si>
+  <si>
+    <t>AZALINA OTHMAN</t>
+  </si>
+  <si>
+    <t>NORLIZA NGADIRAN</t>
+  </si>
+  <si>
+    <t>CHOONG SHIAU YOON</t>
+  </si>
+  <si>
+    <t>HOU KOK CHUNG</t>
+  </si>
+  <si>
+    <t>ABDULLAH HUSIN</t>
+  </si>
+  <si>
+    <t>HASSAN ABDUL KARIM</t>
+  </si>
+  <si>
+    <t>MOHAMED KHALED NORDIN</t>
+  </si>
+  <si>
+    <t>AB AZIZ ABDULLAH</t>
+  </si>
+  <si>
+    <t>SEY JOCK @ CHEE JOCK</t>
+  </si>
+  <si>
+    <t>AKMAL NASRULLAH MOHD NASIR</t>
+  </si>
+  <si>
+    <t>SHARIL @ SHAHRIR AB SAMAD</t>
+  </si>
+  <si>
+    <t>SALAHUDDIN AYUB</t>
+  </si>
+  <si>
+    <t>NUR JAZLAN MOHAMED</t>
+  </si>
+  <si>
+    <t>MOHD MAZRI YAHYA</t>
+  </si>
+  <si>
+    <t>YAP KENG TAK</t>
+  </si>
+  <si>
+    <t>LIM KIT SIANG</t>
+  </si>
+  <si>
+    <t>TEOH SEW HOCK</t>
+  </si>
+  <si>
+    <t>TEO NIE CHING</t>
+  </si>
+  <si>
+    <t>TANG NAI SOON</t>
+  </si>
+  <si>
+    <t>JUWAHIR AMIN</t>
+  </si>
+  <si>
+    <t>AHMAD MASLAN</t>
+  </si>
+  <si>
+    <t>KARMAINE SARDINI</t>
+  </si>
+  <si>
+    <t>BAHAROM MOHAMAD</t>
+  </si>
+  <si>
+    <t>MD FARID MD RAFIK</t>
+  </si>
+  <si>
+    <t>WEE JECK SENG</t>
+  </si>
+  <si>
+    <t>NORDIN OTHMAN</t>
+  </si>
+  <si>
+    <t>ABD RAHIM BAKRI</t>
+  </si>
+  <si>
+    <t>SH AZMAN SH ALONG</t>
+  </si>
+  <si>
+    <t>MOHD ASHRAF CHIN ABDULLAH</t>
+  </si>
+  <si>
+    <t>JOHNITY @ MAXIMUS ONGKILI</t>
+  </si>
+  <si>
+    <t>MAIJOL MAHAP</t>
+  </si>
+  <si>
+    <t>BARLUS MANGABIS</t>
+  </si>
+  <si>
+    <t>PAUL PORODONG</t>
+  </si>
+  <si>
+    <t>ISNARAISSAH MUNIRAH MAJILIS @ FAKHARUDY</t>
+  </si>
+  <si>
+    <t>MD SALLEH MD SAID</t>
+  </si>
+  <si>
+    <t>MIASIN @ AIMADUDDIN MION</t>
+  </si>
+  <si>
+    <t>LAIMAN IKIN @ AG LAIMAN B KAKIMIN</t>
+  </si>
+  <si>
+    <t>MADIUS TANGAU</t>
+  </si>
+  <si>
+    <t>CHRISNADIA SINAM</t>
+  </si>
+  <si>
+    <t>KALAKAU @ KALAKAN UNTOL @ ENTOL</t>
+  </si>
+  <si>
+    <t>SYRA PETER @ P GOM</t>
+  </si>
+  <si>
+    <t>PAUMIN @ MOHD AMINUDDIN ALING</t>
+  </si>
+  <si>
+    <t>MOHD AZIS JAMMAN</t>
+  </si>
+  <si>
+    <t>ABD RAHMAN DAHLAN</t>
+  </si>
+  <si>
+    <t>JEFFREY KUMIN</t>
+  </si>
+  <si>
+    <t>ROBERT SOPINING</t>
+  </si>
+  <si>
+    <t>CHAN FOONG HIN</t>
+  </si>
+  <si>
+    <t>JOSEPH LEE HAN KYUN</t>
+  </si>
+  <si>
+    <t>YONG TECK LEE</t>
+  </si>
+  <si>
+    <t>AWANG HUSAINI SAHARI</t>
+  </si>
+  <si>
+    <t>MAKIN @ MARCUS MAJIGOH</t>
+  </si>
+  <si>
+    <t>ZULZAIM HILMEE ABIDIN</t>
+  </si>
+  <si>
+    <t>JIVOL @ EDMUND DOUDILIM</t>
+  </si>
+  <si>
+    <t>MIL KUSIN ABDILLAH</t>
+  </si>
+  <si>
+    <t>IGNATIUS DORELL LEIKING</t>
+  </si>
+  <si>
+    <t>CEASAR MANDELA MALAKUN</t>
+  </si>
+  <si>
+    <t>CLEFTUS STEPHEN SPINE</t>
+  </si>
+  <si>
+    <t>EDWIN @ JACK BOSI</t>
+  </si>
+  <si>
+    <t>AHMAD HASSAN</t>
+  </si>
+  <si>
+    <t>ROSNAH ABD RASHID SHIRLIN</t>
+  </si>
+  <si>
+    <t>JAMIL WILLIAM CORE</t>
+  </si>
+  <si>
+    <t>ELBERT SIKUIL</t>
+  </si>
+  <si>
+    <t>ANIFAH AMAN @ HANIFF AMMAN</t>
+  </si>
+  <si>
+    <t>KARIM BUJANG</t>
+  </si>
+  <si>
+    <t>JAAFAR ISMAIL</t>
+  </si>
+  <si>
+    <t>AZIZAH MOHD DUN</t>
+  </si>
+  <si>
+    <t>LAJIM UKIN</t>
+  </si>
+  <si>
+    <t>JOHAN @ CHRISTOPHER OT GHANI</t>
+  </si>
+  <si>
+    <t>YAMANI HAFEZ MUSA</t>
+  </si>
+  <si>
+    <t>NOOR HAYATY MUSTAPHA</t>
+  </si>
+  <si>
+    <t>DAYANG AEZZY LIMAN</t>
+  </si>
+  <si>
+    <t>JONATHAN YASIN</t>
+  </si>
+  <si>
+    <t>EWON EBIN</t>
+  </si>
+  <si>
+    <t>SOUDI @ SAMI ANDANG</t>
+  </si>
+  <si>
+    <t>ANDAU YASUN @ BRUNO</t>
+  </si>
+  <si>
+    <t>JEFFREY KITINGAN</t>
+  </si>
+  <si>
+    <t>JIKULIN NOINTIN @ ANASTASIUS</t>
+  </si>
+  <si>
+    <t>DANIEL KINSIK</t>
+  </si>
+  <si>
+    <t>JIUS AWANG</t>
+  </si>
+  <si>
+    <t>MAIMIN RIJAN</t>
+  </si>
+  <si>
+    <t>JUSTIN GUKA</t>
+  </si>
+  <si>
+    <t>NOORITA SUAL</t>
+  </si>
+  <si>
+    <t>RUBIN BALANG</t>
+  </si>
+  <si>
+    <t>LAIMOI @ YUSLINAH LAIKIM</t>
+  </si>
+  <si>
+    <t>ARTHUR JOSEPH KURUP</t>
+  </si>
+  <si>
+    <t>RAYMOND AHUAR</t>
+  </si>
+  <si>
+    <t>JOH JIMMY @ RICHARD JOE JIMMY</t>
+  </si>
+  <si>
+    <t>MAIDIN ATAK @ MAIDIN OSMAN</t>
+  </si>
+  <si>
+    <t>ENGAH SINTAN @ DAHLAN ABDULLAH</t>
+  </si>
+  <si>
+    <t>RONALD KIANDEE</t>
+  </si>
+  <si>
+    <t>JAPAR ZAIRUN</t>
+  </si>
+  <si>
+    <t>SIPIN KADANDI</t>
+  </si>
+  <si>
+    <t>TOIDY LUIT</t>
+  </si>
+  <si>
+    <t>LEM @ SALIM MATIN</t>
+  </si>
+  <si>
+    <t>SALIMAH OYONG</t>
+  </si>
+  <si>
+    <t>ZAKARIA MOHD EDRIS @ TUBAU</t>
+  </si>
+  <si>
+    <t>IRWANSHAH MUSTAPA</t>
+  </si>
+  <si>
+    <t>ALFIAN MANSYUR</t>
+  </si>
+  <si>
+    <t>LIEW VUI KEONG</t>
+  </si>
+  <si>
+    <t>LINDATSEN THAU LIN</t>
+  </si>
+  <si>
+    <t>HAMZA A. ABDULLAH @ HAMZAH</t>
+  </si>
+  <si>
+    <t>NORSAH BONGSU</t>
+  </si>
+  <si>
+    <t>WONG TIEN FATT @ WONG NYUK FOH</t>
+  </si>
+  <si>
+    <t>LIM MING HOO</t>
+  </si>
+  <si>
+    <t>MOKTAR RADIN</t>
+  </si>
+  <si>
+    <t>M A GHAZALI ABDUL GHANI</t>
+  </si>
+  <si>
+    <t>MUSTAPA DATU TAMBUYONG</t>
+  </si>
+  <si>
+    <t>MOHAMADDIN KETAPI</t>
+  </si>
+  <si>
+    <t>DATU NASRUN DATU MANSUR</t>
+  </si>
+  <si>
+    <t>RAMLI PATARUDDIN</t>
+  </si>
+  <si>
+    <t>SITI SHAZIANTI AJAK</t>
+  </si>
+  <si>
+    <t>MOHD SHAFIE APDAL</t>
+  </si>
+  <si>
+    <t>RAMLEE MARAHABAN</t>
+  </si>
+  <si>
+    <t>ABDUL NASIR AB RAUP</t>
+  </si>
+  <si>
+    <t>ASMARA ASMAD</t>
+  </si>
+  <si>
+    <t>LIEW CHIN JIN</t>
+  </si>
+  <si>
+    <t>YAP KAIN CHING @ MARY YAP KEN JIN</t>
+  </si>
+  <si>
+    <t>MOHAMAD HUSAIN</t>
+  </si>
+  <si>
+    <t>ALIZAMAN JIJURAHMAN</t>
+  </si>
+  <si>
+    <t>MUN SULAIMAN</t>
+  </si>
+  <si>
+    <t>ABDUL GHAPUR SALLEH</t>
+  </si>
+  <si>
+    <t>NORBIN ALOH</t>
+  </si>
+  <si>
+    <t>AHMAD LAHAMA</t>
+  </si>
+  <si>
+    <t>MORDI BIMOL</t>
+  </si>
+  <si>
+    <t>NOGEH GUMBEK</t>
+  </si>
+  <si>
+    <t>WAN JUNAIDI TUANKU JAAFAR</t>
+  </si>
+  <si>
+    <t>MOHAMAD FIDZUAN ZAIDI</t>
+  </si>
+  <si>
+    <t>FADILLAH YUSOF</t>
+  </si>
+  <si>
+    <t>NOR IRWAN AHMAT NOR</t>
+  </si>
+  <si>
+    <t>HAMDAN SANI</t>
+  </si>
+  <si>
+    <t>KELVIN YII LEE WUEN</t>
+  </si>
+  <si>
+    <t>KHO TECK WAN</t>
+  </si>
+  <si>
+    <t>CHONG CHIENG JEN</t>
+  </si>
+  <si>
+    <t>SIM KUI HIAN</t>
+  </si>
+  <si>
+    <t>RUBIAH WANG</t>
+  </si>
+  <si>
+    <t>SOPIAN JULAIHI</t>
+  </si>
+  <si>
+    <t>ZULKIPLI RAMZI</t>
+  </si>
+  <si>
+    <t>WILLIE MONGIN</t>
+  </si>
+  <si>
+    <t>GENOT SINEL @ JEANNOTH SINEL</t>
+  </si>
+  <si>
+    <t>BULN PATRICK RIBOS</t>
+  </si>
+  <si>
+    <t>RICHARD RIOT JAEM</t>
+  </si>
+  <si>
+    <t>EDWARD ANDREW LUWAK @ EDWARD LUWAK</t>
+  </si>
+  <si>
+    <t>SENIOR WILLIAM RADE</t>
+  </si>
+  <si>
+    <t>NANCY SHUKRI</t>
+  </si>
+  <si>
+    <t>OTHMAN MUSTAPHA @ MOS</t>
+  </si>
+  <si>
+    <t>ASAN SINGKRO</t>
+  </si>
+  <si>
+    <t>ROHANI ABDUL KARIM</t>
+  </si>
+  <si>
+    <t>WAN ABDILLAH WAN AHMAD</t>
+  </si>
+  <si>
+    <t>NARUDIN MENTALI</t>
+  </si>
+  <si>
+    <t>MASIR KUJAT</t>
+  </si>
+  <si>
+    <t>NORINA UMOI UTOT</t>
+  </si>
+  <si>
+    <t>COBBOLD LUSOI</t>
+  </si>
+  <si>
+    <t>TAMBAT @ JUGAH MUYANG</t>
+  </si>
+  <si>
+    <t>ROBERT PASANG ALAM</t>
+  </si>
+  <si>
+    <t>NICHOLAS BAWIN ANGGAT</t>
+  </si>
+  <si>
+    <t>ROBERT LAWSON CHUAT</t>
+  </si>
+  <si>
+    <t>ABANG AHMAD ABANG SUNI</t>
+  </si>
+  <si>
+    <t>NOEL CHANGGAI BUCKING</t>
+  </si>
+  <si>
+    <t>ALI BIJU</t>
+  </si>
+  <si>
+    <t>JAGAH @ SUBENG MULA</t>
+  </si>
+  <si>
+    <t>YUSUF ABD WAHAB</t>
+  </si>
+  <si>
+    <t>MOHAMAD FADILLAH SABALI</t>
+  </si>
+  <si>
+    <t>AHMAD JOHNIE ZAWAWI</t>
+  </si>
+  <si>
+    <t>ANDRI ZULKARNAEN HAMDEN</t>
+  </si>
+  <si>
+    <t>WONG LING BIU</t>
+  </si>
+  <si>
+    <t>HUANG TIONG SII</t>
+  </si>
+  <si>
+    <t>WONG CHIN KING</t>
+  </si>
+  <si>
+    <t>LARRY SOON @ LARRY SNG WEI SHIEN</t>
+  </si>
+  <si>
+    <t>JOSEPH SALANG GANDUM</t>
+  </si>
+  <si>
+    <t>AGO DAGANG</t>
+  </si>
+  <si>
+    <t>SATU ANCHOM</t>
+  </si>
+  <si>
+    <t>ALICE LAU KIONG YIENG</t>
+  </si>
+  <si>
+    <t>KONG SIEN CHIU</t>
+  </si>
+  <si>
+    <t>PRISCILLA LAU</t>
+  </si>
+  <si>
+    <t>OSCAR LING CHAI YEW</t>
+  </si>
+  <si>
+    <t>WONG KEE YEW</t>
+  </si>
+  <si>
+    <t>TIEW YEN HOUNG</t>
+  </si>
+  <si>
+    <t>TIONG ING TUNG</t>
+  </si>
+  <si>
+    <t>HANIFAH HAJAR TAIB</t>
+  </si>
+  <si>
+    <t>ABDUL JALIL BUJANG</t>
+  </si>
+  <si>
+    <t>BARU BIAN</t>
+  </si>
+  <si>
+    <t>RITA SARIMAH PATRICK INSOL</t>
+  </si>
+  <si>
+    <t>ALEXANDER NANTA LINGGI</t>
+  </si>
+  <si>
+    <t>PAREN NYAWI</t>
+  </si>
+  <si>
+    <t>UGAK KUMBONG</t>
+  </si>
+  <si>
+    <t>ABUN SUI ANYIT</t>
+  </si>
+  <si>
+    <t>TIONG KING SING</t>
+  </si>
+  <si>
+    <t>CHIEW CHAN YEW</t>
+  </si>
+  <si>
+    <t>CHIENG LEA PHING</t>
+  </si>
+  <si>
+    <t>LUKANISMAN AWANG SAUNI</t>
+  </si>
+  <si>
+    <t>JEMAT PANJANG</t>
+  </si>
+  <si>
+    <t>ZULAIHI BAKAR</t>
+  </si>
+  <si>
+    <t>MICHAEL TEO YU KENG</t>
+  </si>
+  <si>
+    <t>SEBASTIAN TING CHIEW YEW</t>
+  </si>
+  <si>
+    <t>ANYI NGAU</t>
+  </si>
+  <si>
+    <t>ROLAND ENGAN</t>
+  </si>
+  <si>
+    <t>HASBI HABIBOLLAH</t>
+  </si>
+  <si>
+    <t>RICARDO OSMUND YAMPIL BABA</t>
+  </si>
+  <si>
+    <t>HENRY SUM AGONG</t>
+  </si>
+  <si>
+    <t>DANNY PIRI</t>
+  </si>
+  <si>
+    <t>MOHAMAD BRAHIM</t>
   </si>
   <si>
     <t>BN - UMNO</t>
@@ -2836,7 +2836,7 @@
     <t>IKATAN</t>
   </si>
   <si>
-    <t>BN - MyPPP</t>
+    <t>BN - MYPPP</t>
   </si>
   <si>
     <t>WARISAN</t>
@@ -2866,7 +2866,7 @@
     <t>PKAN</t>
   </si>
   <si>
-    <t>Sabah STAR</t>
+    <t>SABAH STAR</t>
   </si>
   <si>
     <t>BN - PBRS</t>
@@ -2887,7 +2887,7 @@
     <t>BN - SUPP</t>
   </si>
   <si>
-    <t>S'wak STAR</t>
+    <t>S'WAK STAR</t>
   </si>
   <si>
     <t>BN - PRS</t>
